--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>MRNA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,132 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F8" s="3">
         <v>17000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>13100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>16000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>35400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>41800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>28900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>29000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>42500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>71400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -820,8 +833,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -882,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>117500</v>
+      </c>
+      <c r="F12" s="3">
         <v>119700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>128500</v>
       </c>
-      <c r="F12" s="3">
-        <v>130600</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>130400</v>
+      </c>
+      <c r="I12" s="3">
         <v>150400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>109100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>104500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>90100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>93600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>199000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3">
-        <v>100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>100</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -970,8 +1003,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,17 +1044,23 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1050,16 +1095,22 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,52 +1124,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>139300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F17" s="3">
         <v>147900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>157000</v>
       </c>
-      <c r="F17" s="3">
-        <v>157900</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>157700</v>
+      </c>
+      <c r="I17" s="3">
         <v>188500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>127600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>125900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>106400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>110300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>231100</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1126,43 +1185,49 @@
         <v>-130900</v>
       </c>
       <c r="E18" s="3">
+        <v>-129000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-143900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-141900</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-153100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-85800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-97000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-77400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-67800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-159700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1179,104 +1244,118 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>10100</v>
       </c>
-      <c r="F20" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="I20" s="3">
         <v>13300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>6400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>3100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>6900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-112400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-114600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-126300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-123800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-132400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-72900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-84000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-67200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-59700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-143300</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
         <v>1500</v>
@@ -1285,92 +1364,104 @@
         <v>1500</v>
       </c>
       <c r="H22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-123300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-123400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-135400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-141300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-80300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-90400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-72400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-64800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-153100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>200</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1382,25 +1473,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-123200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-135100</v>
       </c>
-      <c r="F26" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-141400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-80300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-90600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-72400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-64800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-153200</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-123200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-135100</v>
       </c>
-      <c r="F27" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-144100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-87800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-94100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-75900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-68300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-160200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1575,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1619,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-10100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-13300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-6400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-3100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-6900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-123200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-135100</v>
       </c>
-      <c r="F33" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-144100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-87800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-94100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-75900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-68300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-160200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-123200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-135100</v>
       </c>
-      <c r="F35" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-144100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-87800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-94100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-75900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-68300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-160200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,140 +2139,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>391700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>235900</v>
+      </c>
+      <c r="F41" s="3">
         <v>173700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>151600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>502900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>658400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>167100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>140600</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E42" s="3">
+        <v>867100</v>
+      </c>
+      <c r="F42" s="3">
         <v>884800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>918700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>606000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>863100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>905100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>974200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15300</v>
+        <v>18800</v>
       </c>
       <c r="E43" s="3">
-        <v>11600</v>
+        <v>16300</v>
       </c>
       <c r="F43" s="3">
-        <v>12700</v>
+        <v>25200</v>
       </c>
       <c r="G43" s="3">
-        <v>20500</v>
+        <v>17900</v>
       </c>
       <c r="H43" s="3">
+        <v>24000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J43" s="3">
         <v>17600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>18900</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2135,176 +2326,200 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
       </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20700</v>
+        <v>13400</v>
       </c>
       <c r="E45" s="3">
-        <v>15500</v>
+        <v>9500</v>
       </c>
       <c r="F45" s="3">
-        <v>19200</v>
+        <v>10800</v>
       </c>
       <c r="G45" s="3">
-        <v>21100</v>
+        <v>9200</v>
       </c>
       <c r="H45" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J45" s="3">
         <v>28100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>29200</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1249900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1128800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1094500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1097400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1140800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1563000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1117900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1162900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>502500</v>
+      </c>
+      <c r="E47" s="3">
+        <v>160000</v>
+      </c>
+      <c r="F47" s="3">
         <v>279900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>365000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>437700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>173000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>150400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>221800</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>302600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>287900</v>
+      </c>
+      <c r="F48" s="3">
         <v>203700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>208500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>213500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>212000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>206500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>202500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2320,8 +2535,14 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2356,16 +2577,22 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>5700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>14300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>14300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>14200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>14600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2067500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1589400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1590900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1685300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1806200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1962100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1489200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1601800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>6100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,52 +2879,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F57" s="3">
         <v>11700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>29600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>38500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>31200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>24400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>27500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2700,131 +2967,149 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>136000</v>
+      </c>
+      <c r="F59" s="3">
         <v>136100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>132400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>120700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>191600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>162100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>172500</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1600</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>143100</v>
+      </c>
+      <c r="F60" s="3">
         <v>147800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>162000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>159200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>222800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>186400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>200000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F61" s="3">
         <v>33800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>33600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>33400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>33500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>26900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>26700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2840,35 +3125,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>253200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>232800</v>
+      </c>
+      <c r="F62" s="3">
         <v>157400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>151200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>167600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>175600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>199400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>226200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2878,14 +3169,20 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>426700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>414600</v>
+      </c>
+      <c r="F66" s="3">
         <v>339100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>346700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>360200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>431900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>412700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>452900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,17 +3519,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>1833600</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>1837600</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1620700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1496500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-865200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-784900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-3000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1640900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1174800</v>
+      </c>
+      <c r="F76" s="3">
         <v>1251800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1338600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1446000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1530200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-757100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-688800</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-124200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-123100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-123200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-135100</v>
       </c>
-      <c r="F81" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-144100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-87800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-94100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-75900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-68300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-160200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,52 +4024,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E83" s="3">
-        <v>7500</v>
+        <v>8900</v>
       </c>
       <c r="F83" s="3">
         <v>7300</v>
       </c>
       <c r="G83" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>6500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-106200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-107000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-112200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-143900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-91000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-82000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-46500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-111400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-42600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-185900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-10600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-7600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-26100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-34100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-31900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-29100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-17300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>130300</v>
+      </c>
+      <c r="F94" s="3">
         <v>113400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-246900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-11800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>6400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>116100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-11300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-483700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>288500</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4193,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,52 +4810,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>578100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F100" s="3">
         <v>15800</v>
       </c>
-      <c r="E100" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>7500</v>
+      </c>
+      <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
         <v>575900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>110400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>550000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4413,48 +4910,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>62200</v>
+      </c>
+      <c r="F102" s="3">
         <v>22100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-351300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-155700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>491300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>26400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>50900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-45100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-27900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>101200</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>MRNA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="P7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E8" s="3">
         <v>8400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>14100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>17000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>16000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>35400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>41800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>28900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>29000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>42500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>71400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -789,8 +793,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +846,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,49 +922,50 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>151900</v>
+      </c>
+      <c r="E12" s="3">
         <v>115100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>117500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>119700</v>
       </c>
-      <c r="G12" s="3">
-        <v>128500</v>
-      </c>
       <c r="H12" s="3">
+        <v>128300</v>
+      </c>
+      <c r="I12" s="3">
         <v>130400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>150400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>109100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>104500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>90100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>93600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>199000</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>100</v>
@@ -959,8 +973,11 @@
       <c r="R12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,17 +1070,20 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1101,16 +1124,19 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>188500</v>
+      </c>
+      <c r="E17" s="3">
         <v>139300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>143100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>147900</v>
       </c>
-      <c r="G17" s="3">
-        <v>157000</v>
-      </c>
       <c r="H17" s="3">
+        <v>156800</v>
+      </c>
+      <c r="I17" s="3">
         <v>157700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>188500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>127600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>125900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>106400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>231100</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-130900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-129000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-130900</v>
       </c>
-      <c r="G18" s="3">
-        <v>-143900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-143700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-141700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-153100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-85800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-77400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-67800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-159700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,149 +1279,156 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E20" s="3">
         <v>8400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9100</v>
       </c>
-      <c r="G20" s="3">
-        <v>10100</v>
-      </c>
       <c r="H20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I20" s="3">
         <v>10600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>13300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-115000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-112400</v>
       </c>
-      <c r="F21" s="3">
-        <v>-114600</v>
-      </c>
       <c r="G21" s="3">
-        <v>-126300</v>
+        <v>-114500</v>
       </c>
       <c r="H21" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-123800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-132400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-72900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-84000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-67200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-59700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-143300</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1500</v>
       </c>
       <c r="G22" s="3">
         <v>1500</v>
       </c>
       <c r="H22" s="3">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="I22" s="3">
         <v>1500</v>
       </c>
       <c r="J22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1396,58 +1436,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-124200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-123300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-123400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-135400</v>
-      </c>
       <c r="H23" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-132600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-141300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-80300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-90400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-72400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-64800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-153100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1455,40 +1501,40 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-124200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-123100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-123200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-135100</v>
-      </c>
       <c r="H26" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-132600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-141400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-80300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-90600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-72400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-64800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-153200</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-124200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-123100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-123200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-135100</v>
-      </c>
       <c r="H27" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-132600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-144100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-87800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-94100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-75900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-68300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-160200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-10100</v>
-      </c>
       <c r="H32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-10600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-13300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-124200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-123100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-123200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-135100</v>
-      </c>
       <c r="H33" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-132600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-144100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-87800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-94100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-75900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-68300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-160200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-124200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-123100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-123200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-135100</v>
-      </c>
       <c r="H35" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-132600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-144100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-87800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-94100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-75900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-68300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-160200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="P38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2227,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1761600</v>
+      </c>
+      <c r="E41" s="3">
         <v>391700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>235900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>173700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>151600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>502900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>658400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>167100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>140600</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,47 +2269,50 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>955400</v>
+      </c>
+      <c r="E42" s="3">
         <v>826000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>867100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>884800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>918700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>606000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>863100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>905100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>974200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2232,8 +2322,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2241,38 +2331,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>57900</v>
+      </c>
+      <c r="E43" s="3">
         <v>18800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>25200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>17900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>24000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>30600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18900</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2282,8 +2375,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2332,8 +2428,8 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>0</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -2341,38 +2437,41 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E45" s="3">
         <v>13400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>9500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>10800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>7900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>29200</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,47 +2481,50 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>200</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2796700</v>
+      </c>
+      <c r="E46" s="3">
         <v>1249900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1128800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1094500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1097400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1140800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1563000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1117900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1162900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2432,47 +2534,50 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>354900</v>
+      </c>
+      <c r="E47" s="3">
         <v>502500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>160000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>279900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>365000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>437700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>173000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>150400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>221800</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2587,8 @@
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -2491,38 +2596,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>322000</v>
+      </c>
+      <c r="E48" s="3">
         <v>302600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>203700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>208500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>213500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>212000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>206500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>202500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2583,16 +2694,19 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>5700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2808,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
-      </c>
-      <c r="G52" s="3">
-        <v>14300</v>
       </c>
       <c r="H52" s="3">
         <v>14300</v>
       </c>
       <c r="I52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="J52" s="3">
         <v>14200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2732,8 +2852,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2914,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3486000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2067500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1589400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1590900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1685300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1806200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1962100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1489200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1601800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2832,17 +2958,20 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>6100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3011,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E57" s="3">
         <v>11000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>29600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>24400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2922,17 +3053,20 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2973,46 +3107,49 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>142800</v>
+      </c>
+      <c r="E59" s="3">
         <v>123500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>136000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>132400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>120700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>191600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>162100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>172500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3022,47 +3159,50 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>161600</v>
+      </c>
+      <c r="E60" s="3">
         <v>134600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>143100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>162000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>159200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>222800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>186400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>200000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3072,47 +3212,50 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3000</v>
       </c>
       <c r="R60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E61" s="3">
         <v>38900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>33800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>33500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>26900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26700</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,38 +3274,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>309300</v>
+      </c>
+      <c r="E62" s="3">
         <v>253200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>232800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>157400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>151200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>167600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>175600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>199400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>226200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3175,14 +3321,17 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,38 +3486,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>539100</v>
+      </c>
+      <c r="E66" s="3">
         <v>426700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>414600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>339100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>346700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>360200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>431900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>412700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>452900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3372,17 +3530,20 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3525,14 +3693,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>1833600</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1837600</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,38 +3772,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1737400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-865200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-784900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3642,17 +3816,20 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,38 +3984,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2946900</v>
+      </c>
+      <c r="E76" s="3">
         <v>1640900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1174800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1251800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1338600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1446000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1530200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-757100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-688800</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3842,17 +4028,20 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="P80" s="2">
+      <c r="P80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-124200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-123100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-123200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-135100</v>
-      </c>
       <c r="H81" s="3">
+        <v>-134900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-132600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-144100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-87800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-94100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-75900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-68300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-160200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-106200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-95800</v>
       </c>
-      <c r="F89" s="3">
-        <v>-107000</v>
-      </c>
       <c r="G89" s="3">
-        <v>-112200</v>
+        <v>-110300</v>
       </c>
       <c r="H89" s="3">
+        <v>-108900</v>
+      </c>
+      <c r="I89" s="3">
         <v>-143900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-91000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-82000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-46500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-111400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-42600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-185900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-6700</v>
       </c>
       <c r="F91" s="3">
         <v>-6700</v>
       </c>
       <c r="G91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-10600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-26100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-34100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-316000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>130300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>113400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-246900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>116100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-483700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>14800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>288500</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1381300</v>
+      </c>
+      <c r="E100" s="3">
         <v>578100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>27600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>15800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>575900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>110400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>550000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1369900</v>
+      </c>
+      <c r="E102" s="3">
         <v>155800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>62200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-351300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-155700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>491300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>50900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-45100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-27900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>101200</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>MRNA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157900</v>
+      </c>
+      <c r="E8" s="3">
         <v>66400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>17000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>16000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>35400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>41800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>28900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>29000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>42500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>71400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -796,8 +800,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,8 +856,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +912,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,52 +936,53 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>344500</v>
+      </c>
+      <c r="E12" s="3">
         <v>151900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>115100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>117500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>119700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>128300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>130400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>150400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>109100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>104500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>90100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>93600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>199000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>100</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>100</v>
@@ -976,8 +990,11 @@
       <c r="S12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1046,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1073,17 +1093,20 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,16 +1150,19 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E17" s="3">
         <v>188500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>139300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>143100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>147900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>156800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>157700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>188500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>127600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>125900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>106400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>231100</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-235100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-122100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-130900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-129000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-130900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-143700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-141700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-153100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-85800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-97000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-77400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-67800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-159700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,158 +1313,165 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E20" s="3">
         <v>7400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>13300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-100</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-221400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-107100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-115000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-112400</v>
-      </c>
       <c r="G21" s="3">
-        <v>-114500</v>
+        <v>-112300</v>
       </c>
       <c r="H21" s="3">
+        <v>-114600</v>
+      </c>
+      <c r="I21" s="3">
         <v>-126000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-123800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-132400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-72900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-84000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-67200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-59700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-143300</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1500</v>
       </c>
       <c r="J22" s="3">
         <v>1500</v>
       </c>
       <c r="K22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1439,105 +1479,111 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-232800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-116600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-124200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-123300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-123400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-135300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-132600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-141300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-80300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-90400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-72400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-64800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-153100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>-200</v>
       </c>
       <c r="H24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1545,8 +1591,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-233600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-116700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-124200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-123100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-123200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-134900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-132600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-141400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-80300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-90600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-72400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-64800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-153200</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-233600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-116700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-124200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-123100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-123200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-134900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-132600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-144100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-87800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-94100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-75900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-68300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-160200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1871,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-10200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-13300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-233600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-116700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-124200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-123100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-123200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-134900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-132600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-144100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-87800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-94100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-75900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-68300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-160200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-233600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-116700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-124200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-123100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-123200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-134900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-132600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-144100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-87800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-94100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-75900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-68300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-160200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,41 +2314,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1505600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1761600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>391700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>235900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>173700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>151600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>502900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>658400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>167100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>140600</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2272,50 +2359,53 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="E42" s="3">
         <v>955400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>826000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>867100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>884800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>918700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>606000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>863100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>905100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>974200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2325,8 +2415,8 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2334,41 +2424,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>213500</v>
+      </c>
+      <c r="E43" s="3">
         <v>57900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>18800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>25200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>17900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>24000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>30600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18900</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2378,8 +2471,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -2387,8 +2480,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2431,8 +2527,8 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
+      <c r="Q44" s="3">
+        <v>0</v>
       </c>
       <c r="R44" s="3" t="s">
         <v>4</v>
@@ -2440,41 +2536,44 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>87500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>9500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>10800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>7900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>29200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2484,50 +2583,53 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>200</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3577200</v>
+      </c>
+      <c r="E46" s="3">
         <v>2796700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1249900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1128800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1094500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1097400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1140800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1563000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1117900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1162900</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2537,50 +2639,53 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>692000</v>
+      </c>
+      <c r="E47" s="3">
         <v>354900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>502500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>160000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>279900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>365000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>437700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>173000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>150400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>221800</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2590,8 +2695,8 @@
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2599,41 +2704,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>368600</v>
+      </c>
+      <c r="E48" s="3">
         <v>322000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>302600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>287900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>203700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>208500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>213500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>212000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>206500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>202500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2652,8 +2760,11 @@
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2697,16 +2808,19 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
         <v>5700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,41 +2928,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E52" s="3">
         <v>12400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12900</v>
-      </c>
-      <c r="H52" s="3">
-        <v>14300</v>
       </c>
       <c r="I52" s="3">
         <v>14300</v>
       </c>
       <c r="J52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K52" s="3">
         <v>14200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2855,8 +2975,8 @@
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -2864,8 +2984,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,41 +3040,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4650900</v>
+      </c>
+      <c r="E54" s="3">
         <v>3486000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2067500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1589400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1590900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1685300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1806200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1962100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1489200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1601800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2961,17 +3087,20 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>6100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,41 +3142,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>29600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>38500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>24400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3056,17 +3187,20 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3110,49 +3244,52 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E59" s="3">
         <v>142800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>123500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>136000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>132400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>120700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>191600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>162100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>172500</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3162,50 +3299,53 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1473600</v>
+      </c>
+      <c r="E60" s="3">
         <v>161600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>134600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>147800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>162000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>159200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>222800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3215,50 +3355,53 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>2700</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3000</v>
       </c>
       <c r="S60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E61" s="3">
         <v>68100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>38900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>33800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>33400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>26900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3277,41 +3420,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>308900</v>
+      </c>
+      <c r="E62" s="3">
         <v>309300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>253200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>157400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>151200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>167600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>175600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>199400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>226200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3324,14 +3470,17 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,41 +3644,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1891100</v>
+      </c>
+      <c r="E66" s="3">
         <v>539100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>426700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>414600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>339100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>346700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>360200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>431900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>412700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>452900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3533,17 +3691,20 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3696,14 +3864,14 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>1833600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1837600</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,41 +3946,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1971000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-865200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-784900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3819,17 +3993,20 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,41 +4170,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2759800</v>
+      </c>
+      <c r="E76" s="3">
         <v>2946900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1640900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1174800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1251800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1338600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1446000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1530200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-757100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-688800</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4031,17 +4217,20 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-233600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-116700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-124200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-123100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-123200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-134900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-132600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-144100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-87800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-94100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-75900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-68300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-160200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E83" s="3">
         <v>7600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>6500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>892700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-23900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-106200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-95800</v>
-      </c>
       <c r="G89" s="3">
-        <v>-110300</v>
+        <v>-99000</v>
       </c>
       <c r="H89" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-108900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-143900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-91000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-82000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-46500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-111400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-42600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-185900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-6700</v>
       </c>
       <c r="G91" s="3">
         <v>-6700</v>
       </c>
       <c r="H91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-10600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-26100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-34100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1178300</v>
+      </c>
+      <c r="E94" s="3">
         <v>12500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-316000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>130300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>113400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-246900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>6400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>116100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-483700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>14800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>288500</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5137,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,61 +5305,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1381300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>578100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>27600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>15800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>575900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>110400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>550000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5168,57 +5417,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-255800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1369900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>155800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-351300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-155700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>491300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>50900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-45100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-27900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>101200</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>MRNA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,140 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>570700</v>
+      </c>
+      <c r="E8" s="3">
         <v>157900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>14100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>17000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>13100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>16000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>35400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>41800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>28900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>29000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>42500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>71400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -803,13 +806,16 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>7900</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -859,13 +865,16 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>562800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -915,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,55 +949,56 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>758900</v>
+      </c>
+      <c r="E12" s="3">
         <v>344500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>151900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>115100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>117500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>119700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>128300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>130400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>150400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>109100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>104500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>90100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>93600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>199000</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3">
-        <v>100</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
@@ -993,8 +1006,11 @@
       <c r="T12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,17 +1115,20 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1153,16 +1175,19 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>845800</v>
+      </c>
+      <c r="E17" s="3">
         <v>393000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>188500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>139300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>143100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>147900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>156800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>157700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>127600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>125900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>110300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>231100</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-275100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-235100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-122100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-130900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-129000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-130900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-143700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-141700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-153100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-85800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-97000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-77400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-67800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-159700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,167 +1346,174 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E20" s="3">
         <v>5200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>13300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-100</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-259800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-221400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-107100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-115000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-112300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-114600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-126000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-123800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-132400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-72900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-84000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-67200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-59700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-143300</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>1500</v>
       </c>
       <c r="L22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1482,111 +1521,117 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-271000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-232800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-116600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-124200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-123300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-123400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-135300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-132600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-141300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-80300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-90400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-72400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-64800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-153100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>-200</v>
       </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1594,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-233600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-116700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-124200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-123100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-123200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-134900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-132600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-141400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-80300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-90600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-72400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-64800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-153200</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-233600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-116700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-124200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-123100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-123200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-134900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-132600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-144100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-87800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-94100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-75900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-68300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-160200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-13300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="3">
-        <v>100</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-233600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-116700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-124200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-123100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-123200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-134900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-132600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-144100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-87800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-94100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-75900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-68300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-160200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-233600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-116700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-124200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-123100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-123200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-134900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-132600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-144100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-87800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-94100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-75900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-68300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-160200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R38" s="2">
+      <c r="R38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,44 +2400,45 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2623900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1505600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1761600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>391700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>235900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>173700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>151600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>502900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>658400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>167100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>140600</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2362,53 +2448,56 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1983800</v>
+      </c>
+      <c r="E42" s="3">
         <v>1770700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>955400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>826000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>867100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>884800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>918700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>606000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>863100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>905100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>974200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2418,8 +2507,8 @@
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2427,44 +2516,47 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1410500</v>
+      </c>
+      <c r="E43" s="3">
         <v>213500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>57900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>18800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>16300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>25200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>17900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>24000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18900</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2474,8 +2566,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2483,31 +2575,34 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>46500</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2530,8 +2625,8 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>0</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
@@ -2539,44 +2634,47 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>233200</v>
+      </c>
+      <c r="E45" s="3">
         <v>87500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>10800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>29200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2586,53 +2684,56 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>200</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6297900</v>
+      </c>
+      <c r="E46" s="3">
         <v>3577200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2796700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1249900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1128800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1094500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1097400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1140800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1563000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1117900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1162900</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2642,53 +2743,56 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>638800</v>
+      </c>
+      <c r="E47" s="3">
         <v>692000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>354900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>502500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>160000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>279900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>365000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>437700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>173000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>150400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>221800</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2698,8 +2802,8 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -2707,44 +2811,47 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>387100</v>
+      </c>
+      <c r="E48" s="3">
         <v>368600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>322000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>302600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>287900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>203700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>208500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>213500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>212000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>206500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>202500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2763,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2811,16 +2921,19 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>5700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,44 +3047,47 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E52" s="3">
         <v>13100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12900</v>
-      </c>
-      <c r="I52" s="3">
-        <v>14300</v>
       </c>
       <c r="J52" s="3">
         <v>14300</v>
       </c>
       <c r="K52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="L52" s="3">
         <v>14200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2978,8 +3097,8 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2987,8 +3106,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,44 +3165,47 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7336800</v>
+      </c>
+      <c r="E54" s="3">
         <v>4650900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3486000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2067500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1589400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1590900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1685300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1806200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1962100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1489200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1601800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3090,17 +3215,20 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>6100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,44 +3272,45 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E57" s="3">
         <v>20500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>29600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>38500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>24400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3190,40 +3320,43 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>24300</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3247,52 +3380,55 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4346100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1453000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>142800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>123500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>136000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>132400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>120700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>191600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>162100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>172500</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3302,53 +3438,56 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4388800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1473600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>161600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>134600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>147800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>162000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>159200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>222800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>186400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3358,53 +3497,56 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>2700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>3000</v>
       </c>
       <c r="T60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>109900</v>
+      </c>
+      <c r="E61" s="3">
         <v>108600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>68100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>38900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>33800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>33600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -3423,44 +3565,47 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>276700</v>
+      </c>
+      <c r="E62" s="3">
         <v>308900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>309300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>253200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>232800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>157400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>151200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>167600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>175600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>199400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>226200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3473,14 +3618,17 @@
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,44 +3801,47 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4775400</v>
+      </c>
+      <c r="E66" s="3">
         <v>1891100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>539100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>426700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>414600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>339100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>346700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>360200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>431900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>412700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>452900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3694,17 +3851,20 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3867,14 +4034,14 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>1833600</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1837600</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,44 +4119,47 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2243500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-865200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-784900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
@@ -3996,17 +4169,20 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-3000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,44 +4355,47 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2561400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2759800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2946900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1640900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1174800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1251800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1338600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1446000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1530200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-757100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-688800</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4220,17 +4405,20 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>3400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R80" s="2">
+      <c r="R80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-272500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-233600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-116700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-124200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-123100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-123200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-134900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-132600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-144100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-87800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-94100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-75900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-68300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-160200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E83" s="3">
         <v>8500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>6500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1264300</v>
+      </c>
+      <c r="E89" s="3">
         <v>892700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-23900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-106200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-99000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-107100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-108900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-143900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-91000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-82000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-46500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-111400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-42600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-185900</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-6700</v>
       </c>
       <c r="H91" s="3">
         <v>-6700</v>
       </c>
       <c r="I91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-10600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-34100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-190100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-316000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>130300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>113400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-246900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>6400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>116100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-483700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>14800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>288500</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E100" s="3">
         <v>29700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1381300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>578100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>27600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>15800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>7500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>575900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-9400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>110400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>550000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1118300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-255800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1369900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>155800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>62200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-351300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-155700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>491300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>50900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-45100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-27900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>101200</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,147 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1937000</v>
+      </c>
+      <c r="E8" s="3">
         <v>570700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>66400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>14100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>17000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>13100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>16000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>35400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>41800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>28900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>29000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>42500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>71400</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="S8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
@@ -809,17 +813,20 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>193000</v>
+      </c>
+      <c r="E9" s="3">
         <v>7900</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
@@ -868,17 +875,20 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E10" s="3">
         <v>562800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,58 +963,59 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E12" s="3">
         <v>758900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>344500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>151900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>115100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>117500</v>
       </c>
-      <c r="I12" s="3">
-        <v>119700</v>
-      </c>
       <c r="J12" s="3">
+        <v>119600</v>
+      </c>
+      <c r="K12" s="3">
         <v>128300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>130400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>150400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>109100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>104500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>90100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>93600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>199000</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>100</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,17 +1138,20 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1178,16 +1201,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E17" s="3">
         <v>845800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>393000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>188500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>139300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>143100</v>
       </c>
-      <c r="I17" s="3">
-        <v>147900</v>
-      </c>
       <c r="J17" s="3">
+        <v>147800</v>
+      </c>
+      <c r="K17" s="3">
         <v>156800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>157700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>188500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>127600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>125900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>106400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>110300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>231100</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1266000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-275100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-235100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-122100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-130900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-129000</v>
       </c>
-      <c r="I18" s="3">
-        <v>-130900</v>
-      </c>
       <c r="J18" s="3">
+        <v>-130800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-143700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-141700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-153100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-85800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-77400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-67800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-159700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,176 +1380,183 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
-        <v>9100</v>
-      </c>
       <c r="J20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K20" s="3">
         <v>10200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
+      <c r="S20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1278000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-259800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-221400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-107100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-115000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-112300</v>
       </c>
-      <c r="I21" s="3">
-        <v>-114600</v>
-      </c>
       <c r="J21" s="3">
+        <v>-112900</v>
+      </c>
+      <c r="K21" s="3">
         <v>-126000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-123800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-132400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-72900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-84000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-67200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-59700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-143300</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="I22" s="3">
-        <v>1500</v>
-      </c>
       <c r="J22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K22" s="3">
         <v>1800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1500</v>
       </c>
       <c r="L22" s="3">
         <v>1500</v>
       </c>
       <c r="M22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1524,117 +1564,123 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-271000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-232800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-116600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-124200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-123300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-123400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-135300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-132600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-141300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-80300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-90400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-72400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-153100</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>-200</v>
       </c>
       <c r="J24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-272500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-233600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-116700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-124200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-123100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-123200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-134900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-132600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-141400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-80300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-90600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-72400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-153200</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-272500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-233600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-116700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-124200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-123100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-123200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-134900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-132600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-144100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-87800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-94100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-75900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-160200</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
-        <v>-9100</v>
-      </c>
       <c r="J32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
+      <c r="S32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-272500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-233600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-116700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-124200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-123100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-123200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-134900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-132600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-144100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-87800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-94100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-75900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-160200</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-272500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-233600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-116700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-124200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-123100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-123200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-134900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-132600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-144100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-87800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-94100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-75900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-160200</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S38" s="2">
+      <c r="S38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,47 +2487,48 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5442000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2623900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1505600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1761600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>391700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>235900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>173700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>151600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>502900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>658400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>167100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>140600</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2451,56 +2538,59 @@
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2293000</v>
+      </c>
+      <c r="E42" s="3">
         <v>1983800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1770700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>955400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>826000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>867100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>884800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>918700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>606000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>863100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>905100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>974200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2510,8 +2600,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2519,47 +2609,50 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3228000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1410500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>213500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>57900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>18800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>16300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>25200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>17900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>24000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18900</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2569,8 +2662,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -2578,17 +2671,20 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E44" s="3">
         <v>46500</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2604,8 +2700,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2628,8 +2724,8 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="S44" s="3">
+        <v>0</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -2637,47 +2733,50 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>246000</v>
+      </c>
+      <c r="E45" s="3">
         <v>233200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>87500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>10800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>29200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2687,56 +2786,59 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>200</v>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11703000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6297900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3577200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2796700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1249900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1128800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1094500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1097400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1140800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1563000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1117900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1162900</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2746,56 +2848,59 @@
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>468000</v>
+      </c>
+      <c r="E47" s="3">
         <v>638800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>692000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>354900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>502500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>160000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>279900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>365000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>437700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>173000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>150400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>221800</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2805,8 +2910,8 @@
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -2814,47 +2919,50 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>461000</v>
+      </c>
+      <c r="E48" s="3">
         <v>387100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>368600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>322000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>302600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>287900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>203700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>208500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>213500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>212000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>206500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>202500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2873,8 +2981,11 @@
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2924,16 +3035,19 @@
         <v>0</v>
       </c>
       <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
         <v>5700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,47 +3167,50 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E52" s="3">
         <v>12900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>13100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>14300</v>
       </c>
       <c r="K52" s="3">
         <v>14300</v>
       </c>
       <c r="L52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="M52" s="3">
         <v>14200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>14400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14600</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3100,8 +3220,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,47 +3291,50 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12694000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7336800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4650900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3486000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2067500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1589400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1590900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1685300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1806200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1962100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1489200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1601800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3218,17 +3344,20 @@
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>6100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,47 +3403,48 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E57" s="3">
         <v>18400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>20500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>11000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>24400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3323,26 +3454,29 @@
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3358,8 +3492,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3383,55 +3517,58 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8388000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4346100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1453000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>142800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>123500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>136000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>136100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>132400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>120700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>191600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>162100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>172500</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3441,56 +3578,59 @@
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8441000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4388800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1473600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>161600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>134600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>143100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>147800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>162000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>159200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>222800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>186400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200000</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3500,56 +3640,59 @@
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>2700</v>
-      </c>
-      <c r="T60" s="3">
-        <v>3000</v>
       </c>
       <c r="U60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>138000</v>
+      </c>
+      <c r="E61" s="3">
         <v>109900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>108600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>68100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>38900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>33800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3568,47 +3711,50 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E62" s="3">
         <v>276700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>308900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>309300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>253200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>232800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>157400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>151200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>167600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>175600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>199400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>226200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3621,14 +3767,17 @@
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,47 +3959,50 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8856000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4775400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1891100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>539100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>426700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>414600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>339100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>346700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>360200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>431900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>412700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>452900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
@@ -3854,17 +4012,20 @@
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4037,14 +4205,14 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>1833600</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1837600</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,47 +4293,50 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1023000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-865200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-784900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4172,17 +4346,20 @@
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-3000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,47 +4541,50 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3838000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2561400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2759800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2946900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1640900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1174800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1251800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1338600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1446000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1530200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-757100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-688800</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4408,17 +4594,20 @@
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>3400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S80" s="2">
+      <c r="S80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1221000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-272500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-233600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-116700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-124200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-123100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-123200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-134900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-132600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-144100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-87800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-94100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-75900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-160200</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E83" s="3">
         <v>7700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>8500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>6500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2971000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1264300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>892700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-23900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-106200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-99000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-107100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-108900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-143900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-91000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-82000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-46500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-111400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-42600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-185900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-6700</v>
       </c>
       <c r="I91" s="3">
         <v>-6700</v>
       </c>
       <c r="J91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-26100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-34100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-31900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-190100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-316000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>130300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>113400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-246900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>6400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>116100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-483700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>14800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>288500</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E100" s="3">
         <v>44100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>29700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1381300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>578100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>27600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>15800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>575900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>110400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>550000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2817000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1118300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-255800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1369900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>155800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>62200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>22100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-351300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-155700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>491300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>50900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-45100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-27900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>101200</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,150 +665,154 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="T7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4354000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1937000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>570700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>157900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>66400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>14100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>17000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>13100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>16000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>35400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>41800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>28900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>29000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>42500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>71400</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
+      <c r="T8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U8" s="3">
         <v>0</v>
@@ -816,20 +820,23 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>750000</v>
+      </c>
+      <c r="E9" s="3">
         <v>193000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7900</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -878,20 +885,23 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3604000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1744000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>562800</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
@@ -940,8 +950,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,61 +977,62 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>421000</v>
+      </c>
+      <c r="E12" s="3">
         <v>401000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>758900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>344500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>151900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>115100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>117500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>119600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>128300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>130400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>150400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>109100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>104500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>90100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>93600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>199000</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12" s="3">
-        <v>100</v>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3">
         <v>100</v>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1105,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1141,17 +1161,20 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,16 +1227,19 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1292000</v>
+      </c>
+      <c r="E17" s="3">
         <v>671000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>845800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>393000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>188500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>139300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>143100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>147800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>156800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>157700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>127600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>125900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>110300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>231100</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3062000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1266000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-275100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-235100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-122100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-130900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-129000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-130800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-143700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-141700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-153100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-85800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-97000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-77400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-67800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-159700</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,185 +1414,192 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>6400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6900</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-100</v>
+      <c r="T20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3137000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1278000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-259800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-221400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-107100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-115000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-112300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-112900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-126000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-123800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-132400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-72900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-84000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-67200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-59700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-143300</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1500</v>
       </c>
       <c r="M22" s="3">
         <v>1500</v>
       </c>
       <c r="N22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1567,123 +1607,129 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3063000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1260000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-271000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-232800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-116600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-124200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-123300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-123400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-135300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-132600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-141300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-80300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-90400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-64800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-153100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>283000</v>
+      </c>
+      <c r="E24" s="3">
         <v>39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>-200</v>
       </c>
       <c r="K24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1691,8 +1737,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1221000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-272500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-233600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-116700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-124200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-123100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-123200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-134900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-132600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-141400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-80300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-90600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-72400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-64800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-153200</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1221000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-272500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-233600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-116700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-124200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-123100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-123200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-134900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-132600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-144100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-87800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-94100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-68300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-160200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-6400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6900</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3">
-        <v>100</v>
+      <c r="T32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1221000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-272500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-233600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-116700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-124200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-123100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-123200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-134900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-132600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-144100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-87800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-94100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-68300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-160200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1221000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-272500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-233600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-116700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-124200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-123100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-123200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-134900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-132600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-144100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-87800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-94100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-68300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-160200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T38" s="2">
+      <c r="T38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,50 +2574,51 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5603000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5442000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2623900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1505600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1761600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>391700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>235900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>173700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>502900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>658400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>167100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>140600</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2541,59 +2628,62 @@
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2387000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2293000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1983800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1770700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>955400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>826000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>867100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>884800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>918700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>606000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>863100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>905100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>974200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2603,8 +2693,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -2612,50 +2702,53 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2071000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3228000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1410500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>213500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>57900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>18800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>25200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>24000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18900</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2665,8 +2758,8 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U43" s="3">
         <v>0</v>
@@ -2674,20 +2767,23 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>643000</v>
+      </c>
+      <c r="E44" s="3">
         <v>494000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>46500</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2703,8 +2799,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -2727,8 +2823,8 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
+      <c r="T44" s="3">
+        <v>0</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>4</v>
@@ -2736,50 +2832,53 @@
       <c r="V44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>265000</v>
+      </c>
+      <c r="E45" s="3">
         <v>246000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>233200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>87500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>10800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>7900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>29200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2789,59 +2888,62 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>200</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10969000</v>
+      </c>
+      <c r="E46" s="3">
         <v>11703000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6297900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3577200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2796700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1249900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1128800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1094500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1097400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1140800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1563000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1117900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1162900</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2851,59 +2953,62 @@
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4207000</v>
+      </c>
+      <c r="E47" s="3">
         <v>468000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>638800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>692000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>354900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>502500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>160000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>279900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>365000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>437700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>173000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>150400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>221800</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2913,8 +3018,8 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -2922,50 +3027,53 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>898000</v>
+      </c>
+      <c r="E48" s="3">
         <v>461000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>387100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>368600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>322000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>302600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>287900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>203700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>208500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>213500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>212000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>206500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>202500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2984,8 +3092,11 @@
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3038,16 +3149,19 @@
         <v>0</v>
       </c>
       <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
         <v>5700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,50 +3287,53 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E52" s="3">
         <v>62000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>13100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>14300</v>
       </c>
       <c r="L52" s="3">
         <v>14300</v>
       </c>
       <c r="M52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="N52" s="3">
         <v>14200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>14400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3223,8 +3343,8 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U52" s="3">
         <v>0</v>
@@ -3232,8 +3352,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,50 +3417,53 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16153000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12694000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>7336800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4650900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3486000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2067500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1589400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1590900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1685300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1806200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1962100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1489200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1601800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3347,17 +3473,20 @@
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>6100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,50 +3534,51 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E57" s="3">
         <v>8000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>20500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>11000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>24400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27500</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3457,29 +3588,32 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E58" s="3">
         <v>45000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>24300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3495,8 +3629,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -3520,58 +3654,61 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8604000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8388000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4346100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1453000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>142800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>123500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>136000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>136100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>132400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>120700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>191600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>162100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>172500</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3581,59 +3718,62 @@
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8840000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8441000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4388800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1473600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>161600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>134600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>143100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>147800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>162000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>159200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>222800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>186400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3643,59 +3783,62 @@
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>2700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>3000</v>
       </c>
       <c r="V60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E61" s="3">
         <v>138000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>109900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>108600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>68100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>38900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>33800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>26900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3714,50 +3857,53 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>281000</v>
+      </c>
+      <c r="E62" s="3">
         <v>277000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>276700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>308900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>309300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>253200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>232800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>157400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>151200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>167600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>175600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>199400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>226200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3770,14 +3916,17 @@
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,50 +4117,53 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9449000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8856000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4775400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1891100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>539100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>426700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>414600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>339100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>346700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>360200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>431900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>412700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>452900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4015,17 +4173,20 @@
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4208,14 +4376,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
         <v>1833600</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1837600</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,50 +4467,53 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1757000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-865200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-784900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4349,17 +4523,20 @@
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,50 +4727,53 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6704000</v>
+      </c>
+      <c r="E76" s="3">
         <v>3838000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2561400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2759800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2946900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1640900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1174800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1251800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1338600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1446000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1530200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-757100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-688800</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4597,17 +4783,20 @@
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>3400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T80" s="2">
+      <c r="T80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2780000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1221000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-272500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-233600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-116700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-124200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-123100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-123200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-134900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-132600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-144100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-87800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-94100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-75900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-68300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-160200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E83" s="3">
         <v>15000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>7700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4063000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2971000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1264300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>892700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-23900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-106200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-99000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-107100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-108900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-143900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-91000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-82000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-46500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-111400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-42600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-185900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-35000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6700</v>
       </c>
       <c r="J91" s="3">
         <v>-6700</v>
       </c>
       <c r="K91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="L91" s="3">
         <v>-10600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-26100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-34100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3878000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-180000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-190100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>12500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-316000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>130300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>113400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-246900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>6400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>116100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-483700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>14800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>288500</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5784,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5847,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6042,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>26000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>44100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>29700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1381300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>578100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>27600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>15800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>575900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>110400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>550000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6172,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E102" s="3">
         <v>2817000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1118300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-255800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1369900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>155800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>62200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>22100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-351300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-155700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>491300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>50900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-27900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>101200</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,161 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U7" s="2">
+      <c r="U7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4969000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4354000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1937000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>570700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>66400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>14100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>13100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>16000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>35400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>41800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>28900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>29000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>42500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>71400</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
+      <c r="U8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V8" s="3">
         <v>0</v>
@@ -823,23 +827,26 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E9" s="3">
         <v>750000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>193000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7900</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -888,23 +895,26 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4247000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3604000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1744000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>562800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,8 +963,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -978,64 +991,65 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E12" s="3">
         <v>421000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>401000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>758900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>344500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>151900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>115100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>117500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>119600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>128300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>130400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>150400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>109100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>104500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>90100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>93600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>199000</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
-        <v>100</v>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V12" s="3">
         <v>100</v>
@@ -1043,8 +1057,11 @@
       <c r="W12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,8 +1125,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1164,17 +1184,20 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1230,16 +1253,19 @@
         <v>0</v>
       </c>
       <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1286,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1411000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1292000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>671000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>845800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>393000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>188500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>139300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>143100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>147800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>156800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>157700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>188500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>127600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>125900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>106400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>110300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>231100</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3558000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3062000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1266000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-275100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-235100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-122100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-130900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-129000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-130800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-143700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-141700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-153100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-85800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-97000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-77400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-67800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-159700</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,194 +1448,201 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6900</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-100</v>
+      <c r="U20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3626000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3137000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1278000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-259800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-221400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-107100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-115000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-112300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-112900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-126000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-123800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-132400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-72900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-67200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-59700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-143300</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1500</v>
       </c>
       <c r="N22" s="3">
         <v>1500</v>
       </c>
       <c r="O22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1610,129 +1650,135 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3552000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3063000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1260000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-271000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-232800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-116600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-124200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-123300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-123400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-135300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-132600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-141300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-80300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-90400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-72400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-64800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-153100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E24" s="3">
         <v>283000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>-200</v>
       </c>
       <c r="L24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
@@ -1740,8 +1786,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1854,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2780000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1221000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-272500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-233600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-116700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-124200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-123100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-123200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-134900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-132600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-141400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-80300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-90600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-72400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-64800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-153200</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2780000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1221000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-272500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-233600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-116700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-124200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-123100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-123200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-134900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-132600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-144100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-87800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-75900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-68300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-160200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2058,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2065,8 +2126,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2194,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2262,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6900</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
+      <c r="U32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2780000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1221000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-272500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-233600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-116700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-124200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-123100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-123200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-134900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-132600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-144100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-87800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-75900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-68300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-160200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2466,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2780000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1221000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-272500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-233600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-116700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-124200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-123100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-123200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-134900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-132600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-144100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-87800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-75900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-68300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-160200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U38" s="2">
+      <c r="U38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2635,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,53 +2661,54 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5550000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5603000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5442000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2623900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1505600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1761600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>391700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>235900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>173700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>151600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>502900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>658400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>167100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>140600</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2631,62 +2718,65 @@
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
-      </c>
-      <c r="V41" s="3">
-        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3356000</v>
+      </c>
+      <c r="E42" s="3">
         <v>2387000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2293000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1983800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1770700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>955400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>826000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>867100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>884800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>918700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>606000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>863100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>905100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>974200</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,8 +2786,8 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V42" s="3">
         <v>0</v>
@@ -2705,53 +2795,56 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3199000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2071000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3228000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1410500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>213500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>57900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>18800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>25200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>24000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>30600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18900</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2761,8 +2854,8 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -2770,23 +2863,26 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>965000</v>
+      </c>
+      <c r="E44" s="3">
         <v>643000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>494000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2802,8 +2898,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2826,8 +2922,8 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
+      <c r="U44" s="3">
+        <v>0</v>
       </c>
       <c r="V44" s="3" t="s">
         <v>4</v>
@@ -2835,53 +2931,56 @@
       <c r="W44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>355000</v>
+      </c>
+      <c r="E45" s="3">
         <v>265000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>246000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>233200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>87500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>7900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>28100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>29200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,62 +2990,65 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>200</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13425000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10969000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11703000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6297900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3577200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2796700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1249900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1128800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1094500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1097400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1140800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1563000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1117900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1162900</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2956,62 +3058,65 @@
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6442000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4207000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>468000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>638800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>692000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>354900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>502500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>160000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>279900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>365000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>437700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>173000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>150400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>221800</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3021,8 +3126,8 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3030,53 +3135,56 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>960000</v>
+      </c>
+      <c r="E48" s="3">
         <v>898000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>461000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>387100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>368600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>322000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>302600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>287900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>203700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>208500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>213500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>212000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>206500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>202500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3095,8 +3203,11 @@
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3152,16 +3263,19 @@
         <v>0</v>
       </c>
       <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
         <v>5700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3339,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,53 +3407,56 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E52" s="3">
         <v>79000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>62000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>13100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12900</v>
-      </c>
-      <c r="L52" s="3">
-        <v>14300</v>
       </c>
       <c r="M52" s="3">
         <v>14300</v>
       </c>
       <c r="N52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="O52" s="3">
         <v>14200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>14400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3346,8 +3466,8 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3355,8 +3475,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,53 +3543,56 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20923000</v>
+      </c>
+      <c r="E54" s="3">
         <v>16153000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12694000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7336800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4650900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3486000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2067500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1589400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1590900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1685300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1806200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1962100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1489200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1601800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3476,17 +3602,20 @@
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>6100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3639,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,53 +3665,54 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E57" s="3">
         <v>77000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>20500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>24400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27500</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3591,32 +3722,35 @@
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E58" s="3">
         <v>159000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>45000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>24300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3632,8 +3766,8 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3657,61 +3791,64 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9652000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8604000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8388000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4346100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1453000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>142800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>123500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>136000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>136100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>132400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>120700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>191600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>162100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>172500</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3721,62 +3858,65 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9957000</v>
+      </c>
+      <c r="E60" s="3">
         <v>8840000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8441000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4388800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1473600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>161600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>134600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>143100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>147800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>162000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>159200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>222800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>186400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200000</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3786,62 +3926,65 @@
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>2700</v>
-      </c>
-      <c r="V60" s="3">
-        <v>3000</v>
       </c>
       <c r="W60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E61" s="3">
         <v>328000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>138000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>109900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>108600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>68100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>38900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>26900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3860,53 +4003,56 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E62" s="3">
         <v>281000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>277000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>276700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>308900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>309300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>253200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>232800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>157400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>151200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>167600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>175600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>199400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>226200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
@@ -3919,14 +4065,17 @@
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4139,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4207,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,53 +4275,56 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10799000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9449000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8856000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4775400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1891100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>539100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>426700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>414600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>339100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>346700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>360200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>431900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>412700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>452900</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4176,17 +4334,20 @@
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4371,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4437,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4505,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4379,14 +4547,14 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>1833600</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1837600</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4405,8 +4573,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,53 +4641,56 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>5090000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1757000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-865200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-784900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4526,17 +4700,20 @@
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-3000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4777,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4845,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,53 +4913,56 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10124000</v>
+      </c>
+      <c r="E76" s="3">
         <v>6704000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3838000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2561400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2759800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2946900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1640900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1174800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1251800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1338600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1446000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1530200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-757100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-688800</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4786,17 +4972,20 @@
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>3400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5049,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U80" s="2">
+      <c r="U80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3333000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2780000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1221000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-272500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-233600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-116700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-124200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-123100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-123200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-134900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-132600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-144100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-87800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-94100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-75900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-68300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-160200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5218,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E83" s="3">
         <v>69000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>7700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5352,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5420,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5488,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5556,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5624,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3276000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4063000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2971000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1264300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>892700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-23900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-106200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-99000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-107100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-108900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-143900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-91000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-82000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-46500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-111400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-42600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-185900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5720,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-99000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-35000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-6700</v>
       </c>
       <c r="K91" s="3">
         <v>-6700</v>
       </c>
       <c r="L91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M91" s="3">
         <v>-10600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-26100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-34100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-31900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5854,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5922,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3327000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-180000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-190100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>12500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-316000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>130300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>113400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-246900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>6400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>116100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-483700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>14800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>288500</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,8 +6018,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5850,8 +6084,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6152,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6220,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,73 +6288,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-24000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>26000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>44100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>29700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1381300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>578100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>27600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>15800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>575900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>110400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>550000</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6175,69 +6424,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E102" s="3">
         <v>161000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2817000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1118300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-255800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1369900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>155800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>62200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>22100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-351300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-155700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>491300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>50900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-45100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-27900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>101200</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,164 +665,167 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V7" s="2">
+      <c r="V7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7211000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4969000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4354000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1937000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>570700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>66400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>14100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>13100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>16000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>35400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>41800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>28900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>29000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>42500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>71400</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
+      <c r="V8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W8" s="3">
         <v>0</v>
@@ -830,26 +833,29 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E9" s="3">
         <v>722000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>750000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>193000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7900</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -898,26 +904,29 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6259000</v>
+      </c>
+      <c r="E10" s="3">
         <v>4247000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3604000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1744000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>562800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,67 +1004,68 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>648000</v>
+      </c>
+      <c r="E12" s="3">
         <v>521000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>421000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>401000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>758900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>344500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>151900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>115100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>117500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>119600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>128300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>130400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>150400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>109100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>104500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>90100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>93600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>199000</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V12" s="3">
-        <v>100</v>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W12" s="3">
         <v>100</v>
@@ -1060,8 +1073,11 @@
       <c r="X12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1128,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1187,17 +1206,20 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1256,16 +1278,19 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1287,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1801000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1411000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1292000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>671000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>845800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>393000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>188500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>139300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>143100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>147800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>156800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>157700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>127600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>125900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>106400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>110300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>231100</v>
       </c>
-      <c r="U17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="V17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5410000</v>
+      </c>
+      <c r="E18" s="3">
         <v>3558000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3062000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1266000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-275100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-235100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-122100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-130900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-129000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-130800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-143700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-141700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-153100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-85800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-97000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-77400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-67800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-159700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1449,203 +1481,210 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>13300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
+      <c r="V20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5494000</v>
+      </c>
+      <c r="E21" s="3">
         <v>3626000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3137000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1278000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-259800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-221400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-107100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-115000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-112300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-112900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-126000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-123800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-132400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-72900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-84000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-67200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-59700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-143300</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1500</v>
       </c>
       <c r="O22" s="3">
         <v>1500</v>
       </c>
       <c r="P22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1653,135 +1692,141 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>5410000</v>
+      </c>
+      <c r="E23" s="3">
         <v>3552000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3063000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1260000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-271000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-232800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-116600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-124200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-123300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-123400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-135300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-132600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-141300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-80300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-90400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-72400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-64800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-153100</v>
       </c>
-      <c r="U23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="V23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>542000</v>
+      </c>
+      <c r="E24" s="3">
         <v>219000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>283000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>-200</v>
       </c>
       <c r="M24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>100</v>
       </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1789,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1857,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3333000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2780000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1221000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-272500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-233600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-116700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-124200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-123100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-123200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-134900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-132600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-141400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-80300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-90600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-72400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-64800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-153200</v>
       </c>
-      <c r="U26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="V26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3333000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2780000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1221000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-272500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-233600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-116700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-124200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-123100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-123200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-134900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-132600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-144100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-94100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-75900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-68300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-160200</v>
       </c>
-      <c r="U27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2061,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2129,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2265,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-13300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
+      <c r="V32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3333000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2780000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1221000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-272500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-233600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-116700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-124200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-123100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-123200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-134900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-132600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-144100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-94100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-75900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-68300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-160200</v>
       </c>
-      <c r="U33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="V33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2469,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3333000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2780000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1221000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-272500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-233600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-116700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-124200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-123100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-123200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-134900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-132600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-144100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-94100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-75900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-68300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-160200</v>
       </c>
-      <c r="U35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="V35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V38" s="2">
+      <c r="V38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2636,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2662,56 +2747,57 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6848000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5550000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5603000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5442000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2623900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1505600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1761600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>391700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>235900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>173700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>151600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>502900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>658400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>167100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>140600</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2721,65 +2807,68 @@
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
-      </c>
-      <c r="W41" s="3">
-        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3879000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3356000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2387000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2293000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1983800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1770700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>955400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>826000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>867100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>884800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>918700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>606000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>863100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>905100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>974200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2789,8 +2878,8 @@
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -2798,56 +2887,59 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3296000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3199000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2071000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3228000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1410500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>213500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>57900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>18800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>16300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>24000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>30600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18900</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2857,8 +2949,8 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -2866,26 +2958,29 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1441000</v>
+      </c>
+      <c r="E44" s="3">
         <v>965000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>643000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>494000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>46500</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2901,8 +2996,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2925,8 +3020,8 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-      <c r="V44" s="3" t="s">
-        <v>4</v>
+      <c r="V44" s="3">
+        <v>0</v>
       </c>
       <c r="W44" s="3" t="s">
         <v>4</v>
@@ -2934,56 +3029,59 @@
       <c r="X44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>607000</v>
+      </c>
+      <c r="E45" s="3">
         <v>355000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>265000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>246000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>233200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>87500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>28100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>29200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2993,65 +3091,68 @@
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V45" s="3">
-        <v>200</v>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
       <c r="X45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16071000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13425000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10969000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11703000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6297900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3577200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2796700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1249900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1128800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1094500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1097400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1140800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1563000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1117900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1162900</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3061,65 +3162,68 @@
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6843000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6442000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4207000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>468000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>638800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>692000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>354900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>502500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>160000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>279900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>365000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>437700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>173000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>150400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>221800</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3129,8 +3233,8 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3138,56 +3242,59 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1383000</v>
+      </c>
+      <c r="E48" s="3">
         <v>960000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>898000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>461000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>387100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>368600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>322000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>302600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>287900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>203700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>208500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>213500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>212000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>206500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>202500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3206,8 +3313,11 @@
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3266,16 +3376,19 @@
         <v>0</v>
       </c>
       <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
         <v>5700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3342,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3410,56 +3526,59 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>372000</v>
+      </c>
+      <c r="E52" s="3">
         <v>96000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>79000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>62000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>13100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
-      </c>
-      <c r="M52" s="3">
-        <v>14300</v>
       </c>
       <c r="N52" s="3">
         <v>14300</v>
       </c>
       <c r="O52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="P52" s="3">
         <v>14200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14600</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3469,8 +3588,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3478,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3546,56 +3668,59 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24669000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20923000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>16153000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12694000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>7336800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4650900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3486000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2067500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1589400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1590900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1685300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1806200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1962100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1489200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1601800</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3605,17 +3730,20 @@
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W54" s="3">
         <v>6100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3640,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3666,56 +3795,57 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>302000</v>
+      </c>
+      <c r="E57" s="3">
         <v>87000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>77000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>20500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>24400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27500</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3725,35 +3855,38 @@
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W57" s="3">
         <v>600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E58" s="3">
         <v>218000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>159000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>45000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>24300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3769,8 +3902,8 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3794,64 +3927,67 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8661000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9652000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8604000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8388000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4346100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1453000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>142800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>123500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>136000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>132400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>120700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>191600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>162100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>172500</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3861,65 +3997,68 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9128000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9957000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8840000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8441000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4388800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1473600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>161600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>134600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>147800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>162000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>159200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>222800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>186400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>4</v>
       </c>
@@ -3929,65 +4068,68 @@
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W60" s="3">
         <v>2700</v>
-      </c>
-      <c r="W60" s="3">
-        <v>3000</v>
       </c>
       <c r="X60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>599000</v>
+      </c>
+      <c r="E61" s="3">
         <v>238000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>328000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>138000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>109900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>108600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>68100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>38900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>26900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4006,56 +4148,59 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>797000</v>
+      </c>
+      <c r="E62" s="3">
         <v>604000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>281000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>277000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>276700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>308900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>309300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>253200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>232800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>157400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>151200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>167600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>175600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>199400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>226200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4068,14 +4213,17 @@
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4142,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4210,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4278,56 +4432,59 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10524000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10799000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9449000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8856000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4775400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1891100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>539100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>426700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>414600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>339100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>346700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>360200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>431900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>412700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>452900</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4337,17 +4494,20 @@
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4372,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4440,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4508,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4550,14 +4717,14 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>1833600</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1837600</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4576,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4644,56 +4814,59 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>9958000</v>
+      </c>
+      <c r="E72" s="3">
         <v>5090000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1757000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-865200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-784900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4703,17 +4876,20 @@
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W72" s="3">
         <v>-3000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4780,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4848,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4916,56 +5098,59 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14145000</v>
+      </c>
+      <c r="E76" s="3">
         <v>10124000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6704000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3838000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2561400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2759800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2946900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1640900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1174800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1251800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1338600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1446000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1530200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-757100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-688800</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>4</v>
       </c>
@@ -4975,17 +5160,20 @@
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W76" s="3">
         <v>3400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5052,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="V80" s="2">
+      <c r="V80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4868000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3333000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2780000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1221000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-272500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-233600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-116700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-124200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-123100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-123200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-134900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-132600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-144100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-87800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-94100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-75900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-68300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-160200</v>
       </c>
-      <c r="U81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="V81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5219,76 +5416,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E83" s="3">
         <v>70000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>69000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>7700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9500</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5355,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5423,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5491,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5559,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5627,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3310000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3276000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4063000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2971000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1264300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>892700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-23900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-106200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-99000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-107100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-108900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-143900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-91000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-46500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-111400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-42600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-185900</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5721,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-120000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-99000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-35000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-6700</v>
       </c>
       <c r="L91" s="3">
         <v>-6700</v>
       </c>
       <c r="M91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="N91" s="3">
         <v>-10600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-26100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-34100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-31900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5857,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5925,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1138000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-180000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-190100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-316000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>130300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>113400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-246900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>6400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>116100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-483700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>14800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>288500</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6019,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6087,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6155,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6223,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6291,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-873000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-24000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>26000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>44100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>29700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1381300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>578100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>27600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>15800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>575900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>110400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>550000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6427,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-53000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>161000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2817000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1118300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-255800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1369900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>155800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>62200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>22100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-351300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-155700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>491300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>50900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-45100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-27900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>101200</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,174 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W7" s="2">
+      <c r="W7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6066000</v>
+      </c>
+      <c r="E8" s="3">
         <v>7211000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4969000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4354000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1937000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>570700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>157900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>66400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>14100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>13100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>16000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>35400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>41800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>29000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>42500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>71400</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
+      <c r="W8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X8" s="3">
         <v>0</v>
@@ -836,29 +840,32 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E9" s="3">
         <v>952000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>722000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>750000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>193000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7900</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -907,29 +914,32 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5049000</v>
+      </c>
+      <c r="E10" s="3">
         <v>6259000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4247000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3604000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1744000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>562800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,70 +1018,71 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E12" s="3">
         <v>648000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>521000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>421000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>401000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>758900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>344500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>151900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>115100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>117500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>119600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>128300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>130400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>150400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>109100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>104500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>90100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>93600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>199000</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="3">
-        <v>100</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X12" s="3">
         <v>100</v>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1209,17 +1229,20 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,16 +1304,19 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1839000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1801000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1411000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1292000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>671000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>845800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>393000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>188500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>139300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>143100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>147800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>156800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>157700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>188500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>127600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>125900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>106400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>110300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>231100</v>
       </c>
-      <c r="V17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="3">
+      <c r="W17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4227000</v>
+      </c>
+      <c r="E18" s="3">
         <v>5410000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3558000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3062000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1266000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-275100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-235100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-122100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-130900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-129000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-130800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-143700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-141700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-153100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-85800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-97000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-77400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-67800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-159700</v>
       </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="3">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>13300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6900</v>
       </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-100</v>
+      <c r="W20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4314000</v>
+      </c>
+      <c r="E21" s="3">
         <v>5494000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3626000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3137000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1278000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-259800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-221400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-107100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-115000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-112300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-112900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-126000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-123800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-132400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-72900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-84000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-67200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-59700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-143300</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1633,61 +1673,61 @@
         <v>6000</v>
       </c>
       <c r="E22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1500</v>
       </c>
       <c r="P22" s="3">
         <v>1500</v>
       </c>
       <c r="Q22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="3">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1695,141 +1735,147 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4229000</v>
+      </c>
+      <c r="E23" s="3">
         <v>5410000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3552000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3063000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1260000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-271000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-232800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-116600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-124200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-123300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-123400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-135300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-132600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-141300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-80300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-90400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-72400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-64800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-153100</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="W23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>572000</v>
+      </c>
+      <c r="E24" s="3">
         <v>542000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>219000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>283000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>-200</v>
       </c>
       <c r="N24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>100</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X24" s="3">
         <v>0</v>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E26" s="3">
         <v>4868000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3333000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2780000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1221000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-272500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-233600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-116700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-124200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-123100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-123200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-134900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-132600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-141400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-80300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-90600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-72400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-64800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-153200</v>
       </c>
-      <c r="V26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="W26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E27" s="3">
         <v>4868000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3333000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2780000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1221000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-272500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-233600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-116700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-124200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-123100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-123200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-134900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-132600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-87800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-94100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-75900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-68300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-160200</v>
       </c>
-      <c r="V27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="3">
+      <c r="W27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-13300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6900</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="3">
-        <v>100</v>
+      <c r="W32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E33" s="3">
         <v>4868000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3333000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2780000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1221000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-272500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-233600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-116700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-124200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-123100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-123200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-134900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-132600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-87800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-94100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-75900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-68300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-160200</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="3">
+      <c r="W33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E35" s="3">
         <v>4868000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3333000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2780000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1221000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-272500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-233600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-116700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-124200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-123100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-123200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-134900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-132600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-87800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-94100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-75900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-68300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-160200</v>
       </c>
-      <c r="V35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W35" s="3">
+      <c r="W35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W38" s="2">
+      <c r="W38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,59 +2834,60 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5048000</v>
+      </c>
+      <c r="E41" s="3">
         <v>6848000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5550000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5603000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5442000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2623900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1505600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1761600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>391700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>235900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>173700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>151600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>502900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>658400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>167100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>140600</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2810,68 +2897,71 @@
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
-      </c>
-      <c r="X41" s="3">
-        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5067000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3879000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3356000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2387000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2293000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1983800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1770700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>955400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>826000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>867100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>884800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>918700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>606000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>863100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>905100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>974200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2881,8 +2971,8 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -2890,59 +2980,62 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3364000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3296000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3199000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2071000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3228000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1410500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>213500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>57900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>16300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>25200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>24000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>30600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>18900</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2952,8 +3045,8 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W43" s="3">
-        <v>0</v>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -2961,29 +3054,32 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1942000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1441000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>965000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>643000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>494000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>46500</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2999,8 +3095,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3023,8 +3119,8 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="3" t="s">
-        <v>4</v>
+      <c r="W44" s="3">
+        <v>0</v>
       </c>
       <c r="X44" s="3" t="s">
         <v>4</v>
@@ -3032,59 +3128,62 @@
       <c r="Y44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>929000</v>
+      </c>
+      <c r="E45" s="3">
         <v>607000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>355000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>265000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>246000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>233200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>87500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>28100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>29200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3094,68 +3193,71 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>200</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>200</v>
       </c>
       <c r="Y45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16350000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16071000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13425000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10969000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11703000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6297900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3577200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2796700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1249900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1128800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1094500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1097400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1140800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1563000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1117900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1162900</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3165,68 +3267,71 @@
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X46" s="3">
         <v>400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9171000</v>
+      </c>
+      <c r="E47" s="3">
         <v>6843000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6442000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4207000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>468000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>638800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>692000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>354900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>502500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>160000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>279900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>365000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>437700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>173000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>150400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>221800</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3236,8 +3341,8 @@
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3245,59 +3350,62 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1473000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1383000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>960000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>898000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>461000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>387100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>368600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>322000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>302600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>287900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>203700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>208500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>213500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>212000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>206500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>202500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3316,8 +3424,11 @@
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3379,16 +3490,19 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
         <v>5700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,59 +3646,62 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E52" s="3">
         <v>372000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>96000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>79000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>62000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>13100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>14300</v>
       </c>
       <c r="O52" s="3">
         <v>14300</v>
       </c>
       <c r="P52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="Q52" s="3">
         <v>14200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14600</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3591,8 +3711,8 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,59 +3794,62 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>27609000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24669000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20923000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>16153000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12694000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7336800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4650900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3486000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2067500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1589400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1590900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1685300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1806200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1962100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1489200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1601800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3733,17 +3859,20 @@
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
         <v>6100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,59 +3926,60 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>199000</v>
+      </c>
+      <c r="E57" s="3">
         <v>302000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>87000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>77000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>18400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>20500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>29600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>24400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27500</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3858,38 +3989,41 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X57" s="3">
         <v>600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E58" s="3">
         <v>165000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>218000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>159000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>24300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3905,8 +4039,8 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3930,67 +4064,70 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8879000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8661000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9652000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8604000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8388000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4346100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1453000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>142800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>123500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>136000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>132400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>120700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>191600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>162100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>172500</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4000,68 +4137,71 @@
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9238000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9128000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9957000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8840000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8441000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4388800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1473600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>161600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>134600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>143100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>147800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>162000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>159200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>222800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>186400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200000</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4071,68 +4211,71 @@
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
         <v>2700</v>
-      </c>
-      <c r="X60" s="3">
-        <v>3000</v>
       </c>
       <c r="Y60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E61" s="3">
         <v>599000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>238000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>328000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>138000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>109900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>108600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>68100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>38900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>26900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4151,59 +4294,62 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E62" s="3">
         <v>797000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>604000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>281000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>277000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>276700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>308900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>309300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>253200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>232800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>157400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>151200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>167600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>175600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>199400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>226200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4216,14 +4362,17 @@
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,59 +4590,62 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10534000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10524000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10799000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9449000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8856000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4775400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1891100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>539100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>426700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>414600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>339100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>346700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>360200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>431900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>412700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>452900</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4497,17 +4655,20 @@
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4720,14 +4888,14 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>1833600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1837600</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,59 +4988,62 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13615000</v>
+      </c>
+      <c r="E72" s="3">
         <v>9958000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>5090000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1757000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-865200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-784900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>4</v>
       </c>
@@ -4879,17 +5053,20 @@
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X72" s="3">
         <v>-3000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,59 +5284,62 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17075000</v>
+      </c>
+      <c r="E76" s="3">
         <v>14145000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10124000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6704000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3838000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2561400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2759800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2946900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1640900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1174800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1251800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1338600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1446000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1530200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-757100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-688800</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5163,17 +5349,20 @@
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X76" s="3">
         <v>3400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="W80" s="2">
+      <c r="W80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3657000</v>
+      </c>
+      <c r="E81" s="3">
         <v>4868000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3333000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2780000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1221000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-272500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-233600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-116700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-124200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-123100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-123200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-134900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-132600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-144100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-87800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-94100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-75900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-68300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-160200</v>
       </c>
-      <c r="V81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W81" s="3">
+      <c r="W81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,79 +5615,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E83" s="3">
         <v>78000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>69000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>7700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>6500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>9500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W83" s="3">
+      <c r="W83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2763000</v>
+      </c>
+      <c r="E89" s="3">
         <v>3310000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3276000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4063000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2971000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1264300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>892700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-23900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-106200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-99000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-107100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-108900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-143900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-82000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-46500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-111400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-42600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-185900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W89" s="3">
+      <c r="W89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-120000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-99000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-30000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-35000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-6700</v>
       </c>
       <c r="M91" s="3">
         <v>-6700</v>
       </c>
       <c r="N91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="O91" s="3">
         <v>-10600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-26100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-34100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-31900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3921000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-180000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-190100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-316000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>130300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>113400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-246900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>6400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>116100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-483700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>14800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>288500</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-642000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-873000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-24000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>26000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>44100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1381300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>578100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>27600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>15800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>575900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-9400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>110400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>550000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-1400</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W100" s="3">
+      <c r="W100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X100" s="3">
         <v>500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1800000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1299000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-53000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>161000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2817000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1118300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-255800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1369900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>155800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>22100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-351300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-155700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>491300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>50900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-45100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-27900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>101200</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W102" s="3">
+      <c r="W102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,181 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X7" s="2">
+      <c r="X7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4749000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6066000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7211000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4969000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4354000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1937000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>570700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>157900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>66400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>14100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>13100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>16000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>35400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>41800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>29000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>42500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>71400</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -843,32 +847,35 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1381000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1017000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>952000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>722000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>750000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>193000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -917,32 +924,35 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3368000</v>
+      </c>
+      <c r="E10" s="3">
         <v>5049000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6259000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4247000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3604000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1744000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>562800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -991,8 +1001,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,73 +1032,74 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E12" s="3">
         <v>554000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>648000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>521000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>421000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>401000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>758900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>344500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>151900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>115100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>117500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>119600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>128300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>130400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>150400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>109100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>104500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>90100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>93600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>199000</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3">
-        <v>100</v>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y12" s="3">
         <v>100</v>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1184,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1232,17 +1252,20 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1307,16 +1330,19 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2302000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1839000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1801000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1411000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1292000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>671000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>845800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>393000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>188500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>139300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>143100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>147800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>156800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>157700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>188500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>127600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>125900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>106400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>110300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>231100</v>
       </c>
-      <c r="W17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X17" s="3">
+      <c r="X17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2447000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4227000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5410000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3558000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3062000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1266000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-275100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-235100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-122100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-130900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-129000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-130800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-143700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-141700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-153100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-85800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-97000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-77400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-67800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-159700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3">
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,221 +1549,228 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E20" s="3">
         <v>8000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>13300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-100</v>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2555000</v>
+      </c>
+      <c r="E21" s="3">
         <v>4314000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5494000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3626000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3137000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1278000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-259800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-221400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-107100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-115000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-112300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-112900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-126000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-123800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-132400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-72900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-84000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-67200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-59700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-143300</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="E22" s="3">
         <v>6000</v>
       </c>
       <c r="F22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1500</v>
       </c>
       <c r="Q22" s="3">
         <v>1500</v>
       </c>
       <c r="R22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1738,147 +1778,153 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2474000</v>
+      </c>
+      <c r="E23" s="3">
         <v>4229000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>5410000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3552000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3063000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1260000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-271000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-232800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-116600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-124200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-123300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-123400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-135300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-141300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-80300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-90400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-72400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-64800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-153100</v>
       </c>
-      <c r="W23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="3">
+      <c r="X23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E24" s="3">
         <v>572000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>542000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>219000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>283000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>39000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
       </c>
       <c r="M24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>-200</v>
       </c>
       <c r="O24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1886,8 +1932,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="E26" s="3">
         <v>3657000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4868000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3333000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2780000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1221000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-272500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-233600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-116700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-124200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-123100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-123200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-134900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-141400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-80300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-90600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-72400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-64800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-153200</v>
       </c>
-      <c r="W26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="3">
+      <c r="X26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="E27" s="3">
         <v>3657000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4868000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3333000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2780000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1221000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-272500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-233600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-116700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-124200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-123100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-123200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-134900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-144100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-87800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-94100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-75900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-68300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-160200</v>
       </c>
-      <c r="W27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="3">
+      <c r="X27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-13300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3">
-        <v>100</v>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="E33" s="3">
         <v>3657000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4868000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3333000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2780000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1221000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-272500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-233600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-116700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-124200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-123100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-123200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-134900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-144100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-87800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-94100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-75900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-68300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-160200</v>
       </c>
-      <c r="W33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="3">
+      <c r="X33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="E35" s="3">
         <v>3657000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4868000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3333000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2780000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1221000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-272500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-233600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-116700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-124200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-123100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-123200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-134900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-144100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-87800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-94100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-75900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-68300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-160200</v>
       </c>
-      <c r="W35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X35" s="3">
+      <c r="X35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X38" s="2">
+      <c r="X38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,62 +2921,63 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2873000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5048000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6848000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5550000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5603000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5442000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2623900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1505600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1761600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>391700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>235900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>173700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>151600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>502900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>658400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>167100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>140600</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2900,71 +2987,74 @@
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>100</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5024000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5067000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3879000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3356000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>2387000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2293000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1983800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1770700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>955400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>826000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>867100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>884800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>918700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>606000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>863100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>905100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>974200</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2974,8 +3064,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -2983,62 +3073,65 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2844000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3364000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3296000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3199000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2071000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3228000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1410500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>213500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>57900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>18800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>16300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>25200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>24000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>30600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18900</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3048,8 +3141,8 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X43" s="3">
-        <v>0</v>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y43" s="3">
         <v>0</v>
@@ -3057,32 +3150,35 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1942000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1441000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>965000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>643000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>494000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>46500</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3098,8 +3194,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3122,8 +3218,8 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3" t="s">
         <v>4</v>
@@ -3131,62 +3227,65 @@
       <c r="Z44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>901000</v>
+      </c>
+      <c r="E45" s="3">
         <v>929000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>607000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>355000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>265000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>246000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>233200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>87500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>10800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>7900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>28100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>29200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3196,71 +3295,74 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>200</v>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
       <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13563000</v>
+      </c>
+      <c r="E46" s="3">
         <v>16350000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16071000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13425000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10969000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>11703000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6297900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3577200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2796700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1249900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1128800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1094500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1097400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1140800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1563000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1117900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1162900</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3270,71 +3372,74 @@
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>10162000</v>
+      </c>
+      <c r="E47" s="3">
         <v>9171000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>6843000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6442000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4207000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>468000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>638800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>692000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>354900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>502500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>160000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>279900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>365000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>437700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>173000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>150400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>221800</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3344,8 +3449,8 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3353,62 +3458,65 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1446000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1473000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1383000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>960000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>898000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>461000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>387100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>368600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>322000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>302600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>287900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>203700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>208500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>213500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>212000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>206500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>202500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3427,8 +3535,11 @@
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3493,16 +3604,19 @@
         <v>0</v>
       </c>
       <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
         <v>5700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,62 +3766,65 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>872000</v>
+      </c>
+      <c r="E52" s="3">
         <v>615000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>372000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>96000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>79000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>62000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>12900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>13100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>14300</v>
       </c>
       <c r="P52" s="3">
         <v>14300</v>
       </c>
       <c r="Q52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="R52" s="3">
         <v>14200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14600</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3714,8 +3834,8 @@
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3723,8 +3843,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,62 +3920,65 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26043000</v>
+      </c>
+      <c r="E54" s="3">
         <v>27609000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24669000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20923000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16153000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12694000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7336800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4650900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3486000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2067500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1589400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1590900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1685300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1806200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1962100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1489200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1601800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3862,17 +3988,20 @@
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
         <v>6100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,62 +4057,63 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E57" s="3">
         <v>199000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>302000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>87000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>77000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>18400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>20500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>24400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27500</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3992,41 +4123,44 @@
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E58" s="3">
         <v>160000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>165000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>218000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>159000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>45000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>24300</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4042,8 +4176,8 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4067,70 +4201,73 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6510000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8879000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8661000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9652000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8604000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8388000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4346100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1453000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>142800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>123500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>136000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>136100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>132400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>120700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>191600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>162100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>172500</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4140,71 +4277,74 @@
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6812000</v>
+      </c>
+      <c r="E60" s="3">
         <v>9238000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9128000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9957000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8840000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8441000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4388800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1473600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>161600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>134600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>143100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>147800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>162000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>159200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>222800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>186400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200000</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4214,71 +4354,74 @@
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2700</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>3000</v>
       </c>
       <c r="Z60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>641000</v>
+      </c>
+      <c r="E61" s="3">
         <v>646000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>599000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>238000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>328000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>138000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>109900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>108600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>68100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>38900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>26900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4297,62 +4440,65 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E62" s="3">
         <v>650000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>797000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>604000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>281000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>277000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>276700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>308900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>309300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>253200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>232800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>157400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>151200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>167600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>175600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>199400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>226200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4365,14 +4511,17 @@
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,62 +4748,65 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8058000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10534000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10524000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10799000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9449000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8856000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4775400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1891100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>539100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>426700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>414600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>339100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>346700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>360200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>431900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>412700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>452900</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4658,17 +4816,20 @@
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4891,14 +5059,14 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>1833600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1837600</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
       <c r="U70" s="3">
         <v>0</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,62 +5162,65 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>15812000</v>
+      </c>
+      <c r="E72" s="3">
         <v>13615000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>9958000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>5090000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1757000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-865200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-784900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5056,17 +5230,20 @@
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,62 +5470,65 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17985000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17075000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14145000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10124000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6704000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3838000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2561400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2759800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2946900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1640900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1174800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1251800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1338600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1446000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1530200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-757100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-688800</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5352,17 +5538,20 @@
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>3400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X80" s="2">
+      <c r="X80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2197000</v>
+      </c>
+      <c r="E81" s="3">
         <v>3657000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4868000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3333000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2780000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1221000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-272500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-233600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-116700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-124200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-123100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-123200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-134900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-144100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-87800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-94100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-75900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-68300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-160200</v>
       </c>
-      <c r="W81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X81" s="3">
+      <c r="X81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E83" s="3">
         <v>79000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>70000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>69000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>7700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>6500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>9500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X83" s="3">
+      <c r="X83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2763000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3310000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3276000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4063000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2971000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1264300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>892700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-23900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-106200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-99000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-107100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-108900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-143900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-91000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-82000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-46500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-111400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-42600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-185900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-132000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-120000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-99000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-30000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-6700</v>
       </c>
       <c r="N91" s="3">
         <v>-6700</v>
       </c>
       <c r="O91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="P91" s="3">
         <v>-10600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-26100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-34100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-31900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17300</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1152000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3921000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-180000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-190100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>12500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-316000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>130300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>113400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-246900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>6400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>116100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-483700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>14800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>288500</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6719,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6794,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7025,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1327000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-642000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-873000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>26000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>44100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>29700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1381300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>578100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>27600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>15800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>575900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>110400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>550000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-1400</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7179,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2175000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1800000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1299000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-53000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>161000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2817000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1118300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-255800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1369900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>155800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>22100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-351300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-155700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>491300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>50900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-45100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-27900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>101200</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,184 +665,188 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="2">
+      <c r="Y7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3364000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4749000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6066000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7211000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4969000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4354000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1937000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>570700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>157900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>66400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>14100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>13100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>16000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>35400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>41800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>28900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>29000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>42500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>71400</v>
       </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z8" s="3">
         <v>0</v>
@@ -850,35 +854,38 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1100000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1381000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1017000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>952000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>722000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>750000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>193000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7900</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -927,35 +934,38 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2264000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3368000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5049000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6259000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4247000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3604000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1744000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>562800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1014,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,76 +1046,77 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>820000</v>
+      </c>
+      <c r="E12" s="3">
         <v>710000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>554000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>648000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>521000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>421000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>401000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>758900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>344500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>151900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>115100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>117500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>119600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>128300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>130400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>150400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>109100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>104500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>90100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>93600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>199000</v>
       </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>100</v>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z12" s="3">
         <v>100</v>
@@ -1110,8 +1124,11 @@
       <c r="AA12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,8 +1204,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1255,17 +1275,20 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1333,16 +1356,19 @@
         <v>0</v>
       </c>
       <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
         <v>100</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,162 +1393,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2198000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2302000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1839000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1801000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1411000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1292000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>671000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>845800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>393000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>188500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>139300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>143100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>147800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>156800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>157700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>188500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>127600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>125900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>106400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>110300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>231100</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1166000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2447000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4227000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5410000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3558000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3062000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1266000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-275100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-235100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-122100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-130900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-129000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-130800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-143700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-141700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-153100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-85800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-97000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-77400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-67800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-159700</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,230 +1583,237 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E20" s="3">
         <v>32000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>7600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>13300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6900</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-100</v>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z20" s="3">
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1338000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2555000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4314000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5494000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3626000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3137000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1278000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-259800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-221400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-107100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-115000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-112300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-112900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-123800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-132400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-72900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-84000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-67200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-59700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-143300</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-800</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>6000</v>
       </c>
       <c r="F22" s="3">
         <v>6000</v>
       </c>
       <c r="G22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1500</v>
       </c>
       <c r="R22" s="3">
         <v>1500</v>
       </c>
       <c r="S22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>600</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1781,153 +1821,159 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2474000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4229000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>5410000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3552000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3063000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1260000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-271000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-232800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-116600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-124200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-123300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-123400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-135300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-132600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-141300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-80300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-90400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-72400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-64800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-153100</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E24" s="3">
         <v>277000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>572000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>542000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>219000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>283000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>39000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
       </c>
       <c r="N24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>-200</v>
       </c>
       <c r="P24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -1935,8 +1981,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2061,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E26" s="3">
         <v>2197000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>3657000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4868000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3333000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2780000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1221000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-272500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-233600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-116700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-124200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-123100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-123200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-132600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-141400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-80300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-90600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-72400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-64800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-153200</v>
       </c>
-      <c r="X26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Y26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E27" s="3">
         <v>2197000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>3657000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4868000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3333000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2780000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1221000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-272500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-233600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-116700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-124200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-123100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-123200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-132600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-144100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-87800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-94100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-75900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-68300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-160200</v>
       </c>
-      <c r="X27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Y27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2301,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2381,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2461,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,162 +2541,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-32000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-7600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-13300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6900</v>
       </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>100</v>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z32" s="3">
         <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E33" s="3">
         <v>2197000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>3657000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4868000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3333000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2780000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1221000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-272500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-233600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-116700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-124200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-123100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-123200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-132600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-144100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-87800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-94100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-75900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-68300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-160200</v>
       </c>
-      <c r="X33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Y33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2781,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E35" s="3">
         <v>2197000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>3657000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4868000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3333000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2780000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1221000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-272500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-233600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-116700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-124200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-123100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-123200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-132600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-144100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-87800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-94100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-75900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-68300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-160200</v>
       </c>
-      <c r="X35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Y35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y38" s="2">
+      <c r="Y38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +2978,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,65 +3008,66 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3027000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2873000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5048000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6848000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5550000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5603000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5442000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2623900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1505600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1761600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>391700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>235900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>173700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>151600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>502900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>658400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>167100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>140600</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2990,74 +3077,77 @@
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5321000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5024000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5067000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>3879000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3356000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>2387000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2293000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1983800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1770700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>955400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>826000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>867100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>884800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>918700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>606000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>863100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>905100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>974200</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3067,8 +3157,8 @@
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y42" s="3">
-        <v>0</v>
+      <c r="Y42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z42" s="3">
         <v>0</v>
@@ -3076,65 +3166,68 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2821000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2844000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3364000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3296000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3199000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2071000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3228000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1410500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>213500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>57900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>16300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>24000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>30600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>18900</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3144,8 +3237,8 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
@@ -3153,35 +3246,38 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2077000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1921000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1942000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1441000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>965000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>643000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>494000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>46500</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3197,8 +3293,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3221,8 +3317,8 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-      <c r="Y44" s="3" t="s">
-        <v>4</v>
+      <c r="Y44" s="3">
+        <v>0</v>
       </c>
       <c r="Z44" s="3" t="s">
         <v>4</v>
@@ -3230,65 +3326,68 @@
       <c r="AA44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="E45" s="3">
         <v>901000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>929000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>607000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>355000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>265000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>246000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>233200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>87500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>10800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>7900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>11000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>28100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>29200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3298,74 +3397,77 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y45" s="3">
-        <v>200</v>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
       <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14297000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13563000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16350000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16071000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13425000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10969000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11703000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6297900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3577200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2796700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1249900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1128800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1094500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1097400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1140800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1563000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1117900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1162900</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3375,74 +3477,77 @@
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Y46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8655000</v>
+      </c>
+      <c r="E47" s="3">
         <v>10162000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>9171000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>6843000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6442000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4207000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>468000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>638800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>692000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>354900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>502500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>160000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>279900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>365000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>437700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>173000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>150400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>221800</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3452,8 +3557,8 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3461,65 +3566,68 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2132000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1446000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1473000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1383000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>960000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>898000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>461000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>387100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>368600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>322000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>302600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>287900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>203700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>208500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>213500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>212000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>206500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>202500</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3538,8 +3646,11 @@
       <c r="AA48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3607,16 +3718,19 @@
         <v>0</v>
       </c>
       <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
         <v>5700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3806,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,65 +3886,68 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>972000</v>
+      </c>
+      <c r="E52" s="3">
         <v>872000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>615000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>372000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>96000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>79000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>62000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>12900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>13100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12900</v>
-      </c>
-      <c r="P52" s="3">
-        <v>14300</v>
       </c>
       <c r="Q52" s="3">
         <v>14300</v>
       </c>
       <c r="R52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="S52" s="3">
         <v>14200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14600</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3837,8 +3957,8 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z52" s="3">
         <v>0</v>
@@ -3846,8 +3966,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,65 +4046,68 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>26056000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26043000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>27609000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24669000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>20923000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16153000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12694000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7336800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4650900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3486000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2067500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1589400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1590900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1685300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1806200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1962100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1489200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1601800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>4</v>
       </c>
@@ -3991,17 +4117,20 @@
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z54" s="3">
         <v>6100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4158,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,65 +4188,66 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>330000</v>
+      </c>
+      <c r="E57" s="3">
         <v>181000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>199000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>302000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>87000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>77000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>18400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>20500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>38500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>24400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27500</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4126,44 +4257,47 @@
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3">
         <v>600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E58" s="3">
         <v>121000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>160000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>165000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>218000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>159000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>45000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>24300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4179,8 +4313,8 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4204,73 +4338,76 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6253000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6510000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>8879000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8661000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9652000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8604000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8388000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4346100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1453000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>142800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>123500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>136000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>136100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>132400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>120700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>191600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>162100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>172500</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4280,74 +4417,77 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6807000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6812000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9238000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9128000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9957000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8840000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8441000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4388800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1473600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>161600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>134600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>143100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>147800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>162000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>159200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>222800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>186400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200000</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4357,74 +4497,77 @@
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Y60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2700</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>3000</v>
       </c>
       <c r="AA60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>922000</v>
+      </c>
+      <c r="E61" s="3">
         <v>641000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>646000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>599000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>238000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>328000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>138000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>109900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>108600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>68100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>38900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>26900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4443,65 +4586,68 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>335000</v>
+      </c>
+      <c r="E62" s="3">
         <v>605000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>650000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>797000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>604000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>281000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>277000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>276700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>308900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>309300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>253200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>232800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>157400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>151200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>167600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>175600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>199400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>226200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4514,14 +4660,17 @@
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4746,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4826,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,65 +4906,68 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8064000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8058000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10534000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10524000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10799000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9449000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8856000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4775400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1891100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>539100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>426700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>414600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>339100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>346700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>360200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>431900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>412700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>452900</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4819,17 +4977,20 @@
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z66" s="3">
         <v>2700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5018,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5096,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5176,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5062,14 +5230,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
         <v>1833600</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1837600</v>
       </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -5088,8 +5256,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,65 +5336,68 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>16855000</v>
+      </c>
+      <c r="E72" s="3">
         <v>15812000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>13615000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>9958000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>5090000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1757000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-865200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-784900</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5233,17 +5407,20 @@
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5496,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5576,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,65 +5656,68 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17992000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17985000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17075000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14145000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10124000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6704000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3838000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2561400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2759800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2946900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1640900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1174800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1251800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1338600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1446000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1530200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-757100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-688800</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5541,17 +5727,20 @@
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z76" s="3">
         <v>3400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +5816,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y80" s="2">
+      <c r="Y80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1043000</v>
+      </c>
+      <c r="E81" s="3">
         <v>2197000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>3657000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4868000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3333000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2780000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1221000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-272500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-233600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-116700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-124200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-123100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-123200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-134900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-132600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-144100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-87800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-94100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-75900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-68300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-160200</v>
       </c>
-      <c r="X81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Y81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,85 +6013,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E83" s="3">
         <v>76000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>79000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>78000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>70000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>69000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>15000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>7700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y83" s="3">
+      <c r="Y83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6171,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6251,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6331,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6411,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6491,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>252000</v>
+      </c>
+      <c r="E89" s="3">
         <v>304000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2763000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3310000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3276000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4063000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2971000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1264300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>892700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-106200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-99000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-107100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-108900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-143900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-91000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-82000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-46500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-111400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-42600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-185900</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6603,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-87000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-132000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-120000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-99000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-30000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-6700</v>
       </c>
       <c r="O91" s="3">
         <v>-6700</v>
       </c>
       <c r="P91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-26100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-34100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-31900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6761,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +6841,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1152000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3921000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-180000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-190100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>12500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-316000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>130300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>113400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-246900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>6400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>116100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-483700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>14800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>288500</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
+      <c r="Z94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +6953,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7031,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7111,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7191,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,85 +7271,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1041000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1327000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-642000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-873000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>26000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>44100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>29700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1381300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>578100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>27600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>15800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>575900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>110400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>550000</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-1400</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7182,81 +7431,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2175000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1800000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1299000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-53000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>161000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2817000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1118300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-255800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1369900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>155800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>62200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-351300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-155700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>491300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>26400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>50900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-45100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-27900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>101200</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,194 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5084000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3364000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4749000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6066000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7211000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4969000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4354000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1937000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>570700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>157900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>66400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>14100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>13100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>16000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>35400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>41800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>28900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>29000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>42500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>71400</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA8" s="3">
         <v>0</v>
@@ -857,38 +860,41 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1918000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1100000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1381000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1017000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>952000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>722000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>750000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>193000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7900</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -937,38 +943,41 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>3166000</v>
+      </c>
+      <c r="E10" s="3">
         <v>2264000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3368000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5049000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6259000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4247000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3604000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1744000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>562800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1047,79 +1059,80 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E12" s="3">
         <v>820000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>710000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>554000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>648000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>521000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>421000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>401000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>758900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>344500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>151900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>115100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>117500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>119600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>128300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>130400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>150400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>109100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>104500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>90100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>93600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>199000</v>
       </c>
-      <c r="Y12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>100</v>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
         <v>100</v>
@@ -1127,8 +1140,11 @@
       <c r="AB12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1278,17 +1297,20 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1359,16 +1381,19 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
         <v>100</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1394,168 +1419,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3504000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2198000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2302000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1839000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1801000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1411000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1292000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>671000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>845800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>393000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>188500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>139300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>143100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>147800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>156800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>157700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>188500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>127600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>125900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>106400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>110300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>231100</v>
       </c>
-      <c r="Y17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1580000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1166000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2447000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4227000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5410000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3558000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3062000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1266000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-275100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-235100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-122100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-130900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-129000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-130800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-143700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-141700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-153100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-85800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-97000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-77400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-67800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-159700</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1584,239 +1616,246 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E20" s="3">
         <v>59000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>32000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>13300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6900</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-100</v>
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA20" s="3">
         <v>-100</v>
       </c>
       <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1745000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1338000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2555000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>4314000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5494000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3626000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3137000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1278000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-259800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-221400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-107100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-115000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-112300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-112900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-126000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-123800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-132400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-72900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-84000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-67200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-59700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-143300</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-800</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>6000</v>
       </c>
       <c r="G22" s="3">
         <v>6000</v>
       </c>
       <c r="H22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I22" s="3">
         <v>4000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1500</v>
       </c>
       <c r="S22" s="3">
         <v>1500</v>
       </c>
       <c r="T22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>600</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1824,159 +1863,165 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1655000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1217000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2474000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4229000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>5410000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3552000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3063000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1260000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-271000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-232800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-116600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-124200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-123300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-123400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-135300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-132600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-141300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-80300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-90400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-72400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-64800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-153100</v>
       </c>
-      <c r="Y23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E24" s="3">
         <v>174000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>277000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>572000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>542000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>219000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>283000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>39000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>900</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
       </c>
       <c r="O24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>-200</v>
       </c>
       <c r="Q24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>100</v>
       </c>
-      <c r="Y24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
@@ -1984,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2064,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1043000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2197000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>3657000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4868000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3333000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2780000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1221000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-272500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-233600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-116700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-124200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-123100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-123200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-134900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-132600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-141400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-80300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-90600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-72400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-64800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-153200</v>
       </c>
-      <c r="Y26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="Z26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1043000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2197000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>3657000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4868000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3333000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2780000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1221000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-272500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-233600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-116700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-124200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-123100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-123200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-134900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-132600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-144100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-87800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-94100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-75900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-68300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-160200</v>
       </c>
-      <c r="Y27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="Z27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2304,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2464,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2544,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-59000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-32000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-13300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>100</v>
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA32" s="3">
         <v>100</v>
       </c>
       <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1043000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2197000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>3657000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4868000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3333000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2780000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1221000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-272500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-233600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-116700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-124200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-123100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-123200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-134900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-132600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-144100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-87800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-94100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-75900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-68300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-160200</v>
       </c>
-      <c r="Y33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="Z33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2784,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1043000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2197000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>3657000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4868000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3333000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2780000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1221000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-272500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-233600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-116700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-124200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-123100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-123200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-134900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-132600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-144100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-87800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-94100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-75900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-68300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-160200</v>
       </c>
-      <c r="Y35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="Z35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z38" s="2">
+      <c r="Z38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2979,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3009,68 +3094,69 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3205000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3027000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2873000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5048000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6848000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5550000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5603000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5442000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2623900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1505600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1761600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>391700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>235900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>173700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>151600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>502900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>658400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>167100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>140600</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3080,77 +3166,80 @@
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6697000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5321000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5024000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5067000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>3879000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3356000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2387000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2293000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1983800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1770700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>955400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>826000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>867100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>884800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>918700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>606000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>863100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>905100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>974200</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3160,8 +3249,8 @@
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z42" s="3">
-        <v>0</v>
+      <c r="Z42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA42" s="3">
         <v>0</v>
@@ -3169,68 +3258,71 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2821000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2844000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3364000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3296000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3199000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2071000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3228000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1410500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>213500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>57900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>16300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>25200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>24000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>30600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>18900</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3240,8 +3332,8 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
@@ -3249,38 +3341,41 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>949000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2077000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1921000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1942000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1441000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>965000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>643000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>494000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>46500</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3296,8 +3391,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3320,8 +3415,8 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
+      <c r="Z44" s="3">
+        <v>0</v>
       </c>
       <c r="AA44" s="3" t="s">
         <v>4</v>
@@ -3329,68 +3424,71 @@
       <c r="AB44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1051000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>901000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>929000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>607000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>355000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>265000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>246000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>233200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>87500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>7900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>11000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>28100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>29200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3400,77 +3498,80 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>200</v>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
       <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13431000</v>
+      </c>
+      <c r="E46" s="3">
         <v>14297000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13563000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16350000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16071000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13425000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10969000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11703000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6297900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3577200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2796700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1249900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1128800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1094500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1097400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1140800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1563000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1117900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1162900</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3480,77 +3581,80 @@
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>8318000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8655000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>10162000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>9171000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>6843000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6442000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4207000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>468000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>638800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>692000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>354900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>502500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>160000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>279900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>365000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>437700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>173000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>150400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>221800</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3560,8 +3664,8 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3569,68 +3673,71 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2139000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2132000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1446000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1473000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1383000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>960000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>898000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>461000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>387100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>368600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>322000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>302600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>287900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>203700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>208500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>213500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>212000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>206500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>202500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3649,8 +3756,11 @@
       <c r="AB48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3721,16 +3831,19 @@
         <v>0</v>
       </c>
       <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
         <v>5700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3809,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3889,68 +4005,71 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="E52" s="3">
         <v>972000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>872000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>615000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>372000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>96000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>79000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>12900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>13100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12900</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>14300</v>
       </c>
       <c r="R52" s="3">
         <v>14300</v>
       </c>
       <c r="S52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="T52" s="3">
         <v>14200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14600</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
       </c>
@@ -3960,8 +4079,8 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -3969,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4049,68 +4171,71 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25858000</v>
+      </c>
+      <c r="E54" s="3">
         <v>26056000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26043000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>27609000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24669000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20923000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16153000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12694000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7336800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4650900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3486000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2067500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1589400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1590900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1685300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1806200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1962100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1489200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1601800</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4120,17 +4245,20 @@
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
         <v>6100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4159,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4189,68 +4318,69 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E57" s="3">
         <v>330000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>181000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>199000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>302000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>87000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>77000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>18400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>20500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>38500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>24400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27500</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4260,47 +4390,50 @@
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E58" s="3">
         <v>224000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>121000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>160000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>165000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>218000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>159000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>45000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>24300</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4316,8 +4449,8 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4341,76 +4474,79 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4275000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6253000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6510000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8879000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8661000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9652000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8604000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8388000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4346100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1453000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>142800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>123500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>136000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>136100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>132400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>120700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>191600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>162100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>172500</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4420,77 +4556,80 @@
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4923000</v>
+      </c>
+      <c r="E60" s="3">
         <v>6807000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6812000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9238000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9128000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9957000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>8840000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8441000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4388800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1473600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>161600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>134600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>143100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>147800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>162000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>159200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>222800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>186400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200000</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4500,77 +4639,80 @@
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>2700</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>3000</v>
       </c>
       <c r="AB60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>912000</v>
+      </c>
+      <c r="E61" s="3">
         <v>922000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>641000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>646000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>599000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>238000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>328000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>138000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>109900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>108600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>68100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>38900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>26900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4589,68 +4731,71 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900000</v>
+      </c>
+      <c r="E62" s="3">
         <v>335000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>605000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>650000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>797000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>604000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>281000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>277000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>276700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>308900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>309300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>253200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>232800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>157400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>151200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>167600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>175600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>199400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>226200</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4663,14 +4808,17 @@
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4749,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4829,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4909,68 +5063,71 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6735000</v>
+      </c>
+      <c r="E66" s="3">
         <v>8064000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8058000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10534000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10524000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10799000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9449000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8856000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4775400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1891100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>539100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>426700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>414600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>339100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>346700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>360200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>431900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>412700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>452900</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>4</v>
       </c>
@@ -4980,17 +5137,20 @@
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>2700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5099,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5179,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5233,14 +5400,14 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>1833600</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1837600</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5259,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5339,68 +5509,71 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18320000</v>
+      </c>
+      <c r="E72" s="3">
         <v>16855000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>15812000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>13615000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>9958000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>5090000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1757000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-865200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-784900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5410,17 +5583,20 @@
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5499,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5579,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5659,68 +5841,71 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19123000</v>
+      </c>
+      <c r="E76" s="3">
         <v>17992000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17985000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17075000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14145000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10124000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6704000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3838000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2561400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2759800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2946900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1640900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1174800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1251800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1338600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1446000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1530200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-757100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-688800</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5730,17 +5915,20 @@
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>3400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5819,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z80" s="2">
+      <c r="Z80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1043000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2197000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>3657000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4868000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3333000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2780000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1221000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-272500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-233600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-116700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-124200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-123100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-123200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-134900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-132600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-144100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-87800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-94100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-75900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-68300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-160200</v>
       </c>
-      <c r="Y81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="Z81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6014,88 +6211,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
         <v>113000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>76000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>78000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>70000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>69000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>15000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9500</v>
       </c>
-      <c r="Y83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z83" s="3">
+      <c r="Z83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6174,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6254,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6334,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6414,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6494,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1662000</v>
+      </c>
+      <c r="E89" s="3">
         <v>252000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>304000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2763000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3310000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3276000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4063000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2971000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1264300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>892700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-106200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-99000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-107100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-108900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-143900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-91000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-82000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-46500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-111400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-42600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-185900</v>
       </c>
-      <c r="Y89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z89" s="3">
+      <c r="Z89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-500</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-89000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-87000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-132000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-120000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-99000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-30000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-19300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-6700</v>
       </c>
       <c r="P91" s="3">
         <v>-6700</v>
       </c>
       <c r="Q91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="R91" s="3">
         <v>-10600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-26100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-34100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-31900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6764,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6844,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1048000</v>
+      </c>
+      <c r="E94" s="3">
         <v>945000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1152000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3921000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-180000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-190100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-316000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>130300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>113400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-246900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-11800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>6400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>116100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-483700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>14800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>288500</v>
       </c>
-      <c r="Y94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
+      <c r="AA94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6954,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7034,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7114,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7194,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7274,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-438000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1041000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1327000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-642000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-873000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>26000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>44100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>29700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1381300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>578100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>27600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>15800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>575900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>110400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>550000</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="Z100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7434,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E102" s="3">
         <v>156000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2175000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1800000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1299000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-53000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>161000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2817000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1118300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-255800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1369900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>155800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>62200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-351300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-155700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>491300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>26400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>50900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-45100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-27900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>101200</v>
       </c>
-      <c r="Y102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z102" s="3">
+      <c r="Z102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,201 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="2">
+      <c r="AA7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1862000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5084000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3364000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4749000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6066000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7211000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4969000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4354000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1937000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>570700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>157900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>66400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>14100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>13100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>16000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>35400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>41800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>29000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>42500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>71400</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>
@@ -863,41 +867,44 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>792000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1918000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1100000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1381000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1017000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>952000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>722000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>750000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>193000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -946,41 +953,44 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3166000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2264000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3368000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5049000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6259000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4247000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3604000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1744000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>562800</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,82 +1073,83 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1211000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>820000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>710000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>554000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>648000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>521000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>421000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>401000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>758900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>344500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>151900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>115100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>117500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>119600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>128300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>130400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>150400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>109100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>104500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>90100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>93600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>199000</v>
       </c>
-      <c r="Z12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>100</v>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB12" s="3">
         <v>100</v>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1300,17 +1320,20 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,16 +1407,19 @@
         <v>0</v>
       </c>
       <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
         <v>100</v>
       </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2228000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3504000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2198000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2302000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1839000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1801000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1411000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1292000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>671000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>845800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>393000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>188500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>139300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>143100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>147800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>156800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>157700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>188500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>127600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>125900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>106400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>110300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>231100</v>
       </c>
-      <c r="Z17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1580000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1166000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2447000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4227000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5410000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3558000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3062000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1266000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-275100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-235100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-122100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-130900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-129000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-130800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-143700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-141700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-153100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-85800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-97000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-77400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-67800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-159700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,248 +1650,255 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>70000</v>
+      </c>
+      <c r="E20" s="3">
         <v>85000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>59000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>32000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>13300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6900</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>-100</v>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB20" s="3">
         <v>-100</v>
       </c>
       <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1745000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1338000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2555000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>4314000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5494000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3626000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3137000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1278000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-259800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-221400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-107100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-115000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-112300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-112900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-126000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-123800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-132400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-72900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-84000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-67200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-59700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-143300</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-800</v>
       </c>
-      <c r="AC21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>6000</v>
       </c>
       <c r="H22" s="3">
         <v>6000</v>
       </c>
       <c r="I22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J22" s="3">
         <v>4000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>5000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>1500</v>
       </c>
       <c r="T22" s="3">
         <v>1500</v>
       </c>
       <c r="U22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>600</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
@@ -1866,165 +1906,171 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-305000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1655000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1217000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2474000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4229000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>5410000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3552000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3063000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1260000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-271000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-232800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-116600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-124200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-123300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-123400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-135300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-132600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-141300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-80300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-90400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-72400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-64800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-153100</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-384000</v>
+      </c>
+      <c r="E24" s="3">
         <v>190000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>174000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>277000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>572000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>542000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>219000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>283000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>39000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>900</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
       </c>
       <c r="P24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>-200</v>
       </c>
       <c r="R24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
       <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
         <v>100</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
+      <c r="AA24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1465000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1043000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2197000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>3657000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4868000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3333000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2780000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1221000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-272500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-233600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-116700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-124200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-123100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-123200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-134900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-132600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-141400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-80300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-90600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-72400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-64800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-153200</v>
       </c>
-      <c r="Z26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AA26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1465000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1043000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2197000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>3657000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4868000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3333000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2780000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1221000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-272500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-233600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-116700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-124200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-123100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-123200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-134900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-132600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-144100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-87800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-94100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-75900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-68300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-160200</v>
       </c>
-      <c r="Z27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AA27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-85000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-59000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-32000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-13300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6900</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>100</v>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB32" s="3">
         <v>100</v>
       </c>
       <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1465000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1043000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2197000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>3657000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4868000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3333000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2780000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1221000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-272500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-233600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-116700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-124200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-123100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-123200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-134900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-132600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-144100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-87800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-94100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-75900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-68300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-160200</v>
       </c>
-      <c r="Z33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AA33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1465000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1043000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2197000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>3657000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4868000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3333000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2780000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1221000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-272500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-233600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-116700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-124200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-123100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-123200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-134900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-132600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-144100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-87800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-94100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-75900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-68300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-160200</v>
       </c>
-      <c r="Z35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AA35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA38" s="2">
+      <c r="AA38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,71 +3181,72 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3441000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3205000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3027000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2873000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5048000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6848000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5550000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5603000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5442000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2623900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1505600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1761600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>391700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>235900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>173700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>151600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>502900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>658400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>167100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>140600</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3169,80 +3256,83 @@
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AA41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>5482000</v>
+      </c>
+      <c r="E42" s="3">
         <v>6697000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5321000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5024000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5067000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3879000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3356000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2387000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2293000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1983800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1770700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>955400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>826000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>867100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>884800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>918700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>606000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>863100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>905100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>974200</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3252,8 +3342,8 @@
       <c r="Z42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA42" s="3">
-        <v>0</v>
+      <c r="AA42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB42" s="3">
         <v>0</v>
@@ -3261,71 +3351,74 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1521000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1628000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2821000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2844000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3364000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3296000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3199000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2071000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3228000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1410500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>213500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>57900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>16300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>25200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>24000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>30600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>17600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18900</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3335,8 +3428,8 @@
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="3">
-        <v>0</v>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -3344,41 +3437,44 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E44" s="3">
         <v>949000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2077000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1921000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1942000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1441000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>965000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>643000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>494000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>46500</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3394,8 +3490,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3418,8 +3514,8 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-      <c r="AA44" s="3" t="s">
-        <v>4</v>
+      <c r="AA44" s="3">
+        <v>0</v>
       </c>
       <c r="AB44" s="3" t="s">
         <v>4</v>
@@ -3427,71 +3523,74 @@
       <c r="AC44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>946000</v>
+      </c>
+      <c r="E45" s="3">
         <v>952000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1051000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>901000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>929000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>607000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>355000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>265000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>246000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>233200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>87500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>11000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>28100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>29200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3501,80 +3600,83 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA45" s="3">
-        <v>200</v>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
       <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12122000</v>
+      </c>
+      <c r="E46" s="3">
         <v>13431000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14297000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13563000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16350000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16071000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>13425000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>10969000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11703000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6297900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3577200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2796700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1249900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1128800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1094500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1097400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1140800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1563000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1117900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1162900</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3584,80 +3686,83 @@
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AA46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>7442000</v>
+      </c>
+      <c r="E47" s="3">
         <v>8318000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8655000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>10162000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>9171000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>6843000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6442000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4207000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>468000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>638800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>692000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>354900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>502500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>160000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>279900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>365000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>437700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>173000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>150400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>221800</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3667,8 +3772,8 @@
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA47" s="3">
-        <v>0</v>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -3676,71 +3781,74 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2135000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2139000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2132000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1446000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1473000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1383000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>960000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>898000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>461000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>387100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>368600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>322000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>302600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>287900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>203700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>208500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>213500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>212000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>206500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>202500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3834,16 +3945,19 @@
         <v>0</v>
       </c>
       <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
         <v>5700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,71 +4125,74 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2426000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1970000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>972000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>872000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>615000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>372000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>96000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>79000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>13100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12900</v>
-      </c>
-      <c r="R52" s="3">
-        <v>14300</v>
       </c>
       <c r="S52" s="3">
         <v>14300</v>
       </c>
       <c r="T52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="U52" s="3">
         <v>14200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14600</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4082,8 +4202,8 @@
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,71 +4297,74 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24125000</v>
+      </c>
+      <c r="E54" s="3">
         <v>25858000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>26056000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26043000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>27609000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24669000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20923000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>16153000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12694000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7336800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4650900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3486000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2067500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1589400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1590900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1685300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1806200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1962100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1489200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1601800</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4248,17 +4374,20 @@
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AA54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB54" s="3">
         <v>6100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,71 +4449,72 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>389000</v>
+      </c>
+      <c r="E57" s="3">
         <v>487000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>330000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>181000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>199000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>302000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>87000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>77000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>18400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>20500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>11000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>24400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27500</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4393,50 +4524,53 @@
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3">
         <v>600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E58" s="3">
         <v>161000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>224000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>121000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>160000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>165000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>218000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>159000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>45000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>24300</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4452,8 +4586,8 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4477,79 +4611,82 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2957000</v>
+      </c>
+      <c r="E59" s="3">
         <v>4275000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6253000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6510000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8879000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8661000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9652000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8604000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8388000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4346100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1453000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>142800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>123500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>136000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>136100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>132400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>120700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>191600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>162100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>172500</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4559,80 +4696,83 @@
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3499000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4923000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6807000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6812000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9238000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9128000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9957000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8840000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8441000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4388800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1473600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>161600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>134600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>143100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>147800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>162000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>159200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>222800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>186400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200000</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4642,80 +4782,83 @@
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AA60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="3">
         <v>2700</v>
-      </c>
-      <c r="AB60" s="3">
-        <v>3000</v>
       </c>
       <c r="AC60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>831000</v>
+      </c>
+      <c r="E61" s="3">
         <v>912000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>922000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>641000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>646000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>599000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>238000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>328000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>138000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>109900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>108600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>68100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>38900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>26900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4734,71 +4877,74 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>932000</v>
+      </c>
+      <c r="E62" s="3">
         <v>900000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>335000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>605000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>650000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>797000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>604000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>281000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>277000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>276700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>308900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>309300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>253200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>232800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>157400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>151200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>167600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>175600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>199400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>226200</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4811,14 +4957,17 @@
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,71 +5221,74 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5262000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6735000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>8064000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8058000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10534000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10524000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10799000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9449000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8856000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4775400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1891100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>539100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>426700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>414600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>339100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>346700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>360200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>431900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>412700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>452900</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5140,17 +5298,20 @@
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AA66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB66" s="3">
         <v>2700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5403,14 +5571,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>1833600</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1837600</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
       <c r="X70" s="3">
         <v>0</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,71 +5683,74 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>18399000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18320000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>16855000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>15812000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>13615000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>9958000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>5090000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1757000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-865200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-784900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5586,17 +5760,20 @@
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AA72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,71 +6027,74 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18863000</v>
+      </c>
+      <c r="E76" s="3">
         <v>19123000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17992000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17985000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17075000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14145000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10124000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6704000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3838000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2561400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2759800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2946900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1640900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1174800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1251800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1338600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1446000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1530200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-757100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-688800</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>4</v>
       </c>
@@ -5918,17 +6104,20 @@
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AA76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB76" s="3">
         <v>3400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA80" s="2">
+      <c r="AA80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1465000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1043000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2197000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>3657000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4868000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3333000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2780000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1221000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-272500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-233600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-116700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-124200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-123100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-123200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-134900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-132600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-144100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-87800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-94100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-75900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-68300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-160200</v>
       </c>
-      <c r="Z81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AA81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,91 +6410,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E83" s="3">
         <v>80000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>76000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>79000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>78000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>70000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>69000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>15000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>6500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA83" s="3">
+      <c r="AA83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1225000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1662000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>252000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>304000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2763000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3310000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3276000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4063000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2971000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1264300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>892700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-23900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-106200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-99000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-107100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-108900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-143900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-91000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-82000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-46500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-111400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-42600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-185900</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AA89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-500</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-113000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-92000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-89000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-87000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-132000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-120000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-99000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-30000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-35000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-19300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-6700</v>
       </c>
       <c r="Q91" s="3">
         <v>-6700</v>
       </c>
       <c r="R91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="S91" s="3">
         <v>-10600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-26100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-34100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-31900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>2011000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1048000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>945000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1152000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3921000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-180000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-190100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-316000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>130300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>113400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-246900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-11800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>6400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>116100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-11300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-483700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>14800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>288500</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
+      <c r="AB94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-542000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-438000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1041000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1327000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-642000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-873000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-24000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>26000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>44100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>29700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1381300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>578100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>27600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>15800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>575900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>110400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>550000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E102" s="3">
         <v>176000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>156000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2175000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1800000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1299000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-53000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>161000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2817000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1118300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-255800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1369900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>155800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>62200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>22100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-351300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-155700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>491300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>26400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>50900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-45100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-27900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>101200</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AA102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,204 +665,208 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>344000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1862000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5084000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3364000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4749000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6066000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7211000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4969000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4354000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1937000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>570700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>157900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>66400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>14100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>13100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>16000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>35400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>41800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>29000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>42500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>71400</v>
       </c>
-      <c r="AA8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>0</v>
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC8" s="3">
         <v>0</v>
@@ -870,44 +874,47 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E9" s="3">
         <v>792000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1918000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1100000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1381000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1017000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>952000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>722000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>750000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>193000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -956,44 +963,47 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-387000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1070000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3166000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2264000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3368000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5049000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6259000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4247000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3604000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1744000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>562800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,85 +1087,86 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1148000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1131000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1211000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>820000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>710000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>554000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>648000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>521000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>421000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>401000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>758900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>344500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>151900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>115100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>117500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>119600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>128300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>130400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>150400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>109100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>104500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>90100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>93600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>199000</v>
       </c>
-      <c r="AA12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>100</v>
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC12" s="3">
         <v>100</v>
@@ -1160,8 +1174,11 @@
       <c r="AD12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,8 +1263,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1323,17 +1343,20 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1410,16 +1433,19 @@
         <v>0</v>
       </c>
       <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
         <v>100</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1473,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2211000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2228000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3504000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2198000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2302000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1839000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1801000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1411000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1292000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>671000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>845800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>393000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>188500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>139300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>143100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>147800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>156800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>157700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>188500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>127600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>125900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>106400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>110300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>231100</v>
       </c>
-      <c r="AA17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="3">
         <v>1000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1867000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-366000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1580000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1166000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2447000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4227000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5410000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3558000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3062000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1266000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-275100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-235100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-122100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-130900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-129000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-130800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-143700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-141700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-153100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-85800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-97000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-77400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-67800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-159700</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,257 +1684,264 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E20" s="3">
         <v>70000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>85000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>59000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>32000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>13300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6900</v>
       </c>
-      <c r="AA20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>-100</v>
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC20" s="3">
         <v>-100</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1644000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-218000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1745000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1338000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2555000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4314000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5494000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3626000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3137000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1278000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-259800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-221400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-107100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-112300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-112900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-126000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-123800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-132400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-72900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-84000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-67200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-59700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-143300</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-800</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E22" s="3">
         <v>9000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>10000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>6000</v>
       </c>
       <c r="I22" s="3">
         <v>6000</v>
       </c>
       <c r="J22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K22" s="3">
         <v>4000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1800</v>
-      </c>
-      <c r="T22" s="3">
-        <v>1500</v>
       </c>
       <c r="U22" s="3">
         <v>1500</v>
       </c>
       <c r="V22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>600</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
@@ -1909,171 +1949,177 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1749000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-305000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1655000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1217000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2474000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>4229000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>5410000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3552000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3063000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1260000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-271000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-232800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-116600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-123300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-123400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-135300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-132600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-141300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-80300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-90400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-72400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-64800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-153100</v>
       </c>
-      <c r="AA23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-369000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-384000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>190000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>174000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>277000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>572000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>542000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>219000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>283000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>39000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
       </c>
       <c r="Q24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R24" s="3">
         <v>-200</v>
       </c>
       <c r="S24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
       <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
         <v>100</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
+      <c r="AB24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1380000</v>
+      </c>
+      <c r="E26" s="3">
         <v>79000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1465000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1043000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2197000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3657000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>4868000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3333000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2780000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1221000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-272500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-233600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-116700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-123100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-123200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-134900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-132600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-141400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-80300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-90600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-72400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-64800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-153200</v>
       </c>
-      <c r="AA26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="3">
+      <c r="AB26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-800</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1380000</v>
+      </c>
+      <c r="E27" s="3">
         <v>79000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1465000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1043000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2197000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3657000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>4868000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3333000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2780000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1221000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-272500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-233600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-116700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-123100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-123200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-134900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-132600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-144100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-87800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-94100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-75900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-68300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-160200</v>
       </c>
-      <c r="AA27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="3">
+      <c r="AB27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,180 +2750,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-70000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-85000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-59000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-32000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-13300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6900</v>
       </c>
-      <c r="AA32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>100</v>
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC32" s="3">
         <v>100</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1380000</v>
+      </c>
+      <c r="E33" s="3">
         <v>79000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1465000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1043000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2197000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3657000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>4868000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3333000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2780000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1221000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-272500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-233600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-116700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-123100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-123200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-134900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-132600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-144100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-87800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-94100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-75900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-68300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-160200</v>
       </c>
-      <c r="AA33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB33" s="3">
+      <c r="AB33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1380000</v>
+      </c>
+      <c r="E35" s="3">
         <v>79000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1465000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1043000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2197000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3657000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>4868000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3333000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2780000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1221000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-272500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-233600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-116700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-123100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-123200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-134900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-132600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-144100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-87800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-94100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-75900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-68300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-160200</v>
       </c>
-      <c r="AA35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB35" s="3">
+      <c r="AB35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB38" s="2">
+      <c r="AB38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,74 +3268,75 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3801000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3441000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3205000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3027000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2873000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5048000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6848000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5550000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5603000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5442000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2623900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1505600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1761600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>391700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>235900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>173700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>151600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>502900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>658400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>167100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>140600</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3259,83 +3346,86 @@
       <c r="AA41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4658000</v>
+      </c>
+      <c r="E42" s="3">
         <v>5482000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>6697000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>5321000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5024000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5067000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3879000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3356000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2387000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2293000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1983800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1770700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>955400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>826000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>867100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>884800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>918700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>606000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>863100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>905100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>974200</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3345,8 +3435,8 @@
       <c r="AA42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB42" s="3">
-        <v>0</v>
+      <c r="AB42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC42" s="3">
         <v>0</v>
@@ -3354,74 +3444,77 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>688000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1521000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1628000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2821000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2844000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3364000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3296000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3199000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2071000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3228000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1410500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>213500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>57900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>16300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>17900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>24000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>30600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>17600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>18900</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3431,8 +3524,8 @@
       <c r="AA43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB43" s="3">
-        <v>0</v>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC43" s="3">
         <v>0</v>
@@ -3440,44 +3533,47 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>715000</v>
+      </c>
+      <c r="E44" s="3">
         <v>732000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>949000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2077000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1921000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1942000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1441000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>965000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>643000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>494000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>46500</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3493,8 +3589,8 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U44" s="3">
         <v>0</v>
@@ -3517,8 +3613,8 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>4</v>
+      <c r="AB44" s="3">
+        <v>0</v>
       </c>
       <c r="AC44" s="3" t="s">
         <v>4</v>
@@ -3526,74 +3622,77 @@
       <c r="AD44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E45" s="3">
         <v>946000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>952000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1051000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>901000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>929000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>607000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>355000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>265000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>246000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>233200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>87500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>21900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>9200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>11000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>28100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>29200</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3603,83 +3702,86 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB45" s="3">
-        <v>200</v>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC45" s="3">
         <v>200</v>
       </c>
       <c r="AD45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10599000</v>
+      </c>
+      <c r="E46" s="3">
         <v>12122000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13431000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14297000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13563000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16350000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16071000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>13425000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10969000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11703000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6297900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3577200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2796700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1249900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1128800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1094500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1097400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1140800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1563000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1117900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1162900</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3689,83 +3791,86 @@
       <c r="AA46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>6105000</v>
+      </c>
+      <c r="E47" s="3">
         <v>7442000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>8318000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>8655000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>10162000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>9171000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>6843000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6442000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4207000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>468000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>638800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>692000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>354900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>502500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>160000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>279900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>365000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>437700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>173000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>150400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>221800</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3775,8 +3880,8 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB47" s="3">
-        <v>0</v>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC47" s="3">
         <v>0</v>
@@ -3784,74 +3889,77 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2410000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2135000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2139000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2132000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1446000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1473000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1383000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>960000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>898000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>461000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>387100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>368600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>322000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>302600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>287900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>203700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>208500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>213500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>212000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>206500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>202500</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3870,8 +3978,11 @@
       <c r="AD48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3948,16 +4059,19 @@
         <v>0</v>
       </c>
       <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
         <v>5700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,74 +4245,77 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2770000</v>
+      </c>
+      <c r="E52" s="3">
         <v>2426000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1970000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>972000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>872000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>615000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>372000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>96000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>79000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>12900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>13100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>12400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>14300</v>
       </c>
       <c r="T52" s="3">
         <v>14300</v>
       </c>
       <c r="U52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="V52" s="3">
         <v>14200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14600</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4205,8 +4325,8 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB52" s="3">
-        <v>0</v>
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC52" s="3">
         <v>0</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,74 +4423,77 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21884000</v>
+      </c>
+      <c r="E54" s="3">
         <v>24125000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25858000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>26056000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26043000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>27609000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24669000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20923000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16153000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12694000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7336800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4650900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3486000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2067500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1589400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1590900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1685300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1806200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1962100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1489200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1601800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4377,17 +4503,20 @@
       <c r="AA54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="3">
         <v>6100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,74 +4580,75 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>310000</v>
+      </c>
+      <c r="E57" s="3">
         <v>389000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>487000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>330000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>181000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>199000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>302000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>87000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>77000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>18400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>20500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>18800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>11000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>11700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>24400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27500</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4527,53 +4658,56 @@
       <c r="AA57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3">
         <v>600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E58" s="3">
         <v>153000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>161000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>224000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>121000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>160000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>165000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>218000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>159000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>45000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>24300</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4589,8 +4723,8 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4614,82 +4748,85 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2626000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2957000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4275000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6253000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6510000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>8879000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8661000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9652000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8604000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8388000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4346100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1453000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>142800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>123500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>136000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>136100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>132400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>120700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>191600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>162100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>172500</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4699,83 +4836,86 @@
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3123000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3499000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4923000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6807000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6812000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9238000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9128000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9957000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8840000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8441000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4388800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1473600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>161600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>134600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>143100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>147800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>162000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>159200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>222800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>186400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>200000</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4785,83 +4925,86 @@
       <c r="AA60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="3">
         <v>2700</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>3000</v>
       </c>
       <c r="AD60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>843000</v>
+      </c>
+      <c r="E61" s="3">
         <v>831000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>912000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>922000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>641000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>646000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>599000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>238000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>328000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>138000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>109900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>108600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>68100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>38900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>26900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4880,74 +5023,77 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>969000</v>
+      </c>
+      <c r="E62" s="3">
         <v>932000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>335000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>605000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>650000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>797000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>604000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>281000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>277000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>276700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>308900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>309300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>253200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>232800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>157400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>151200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>167600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>175600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>199400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>226200</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>4</v>
       </c>
@@ -4960,14 +5106,17 @@
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,74 +5379,77 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4935000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5262000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6735000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>8064000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8058000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10534000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10524000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10799000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9449000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8856000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4775400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1891100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>539100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>426700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>414600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>339100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>346700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>360200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>431900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>412700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>452900</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5301,17 +5459,20 @@
       <c r="AA66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="3">
         <v>2700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5574,14 +5742,14 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
         <v>1833600</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1837600</v>
       </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,74 +5857,77 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>17019000</v>
+      </c>
+      <c r="E72" s="3">
         <v>18399000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18320000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>16855000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>15812000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>13615000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>9958000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>5090000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1757000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-865200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-784900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5763,17 +5937,20 @@
       <c r="AA72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,74 +6213,77 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>16949000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18863000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>19123000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17992000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17985000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17075000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14145000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10124000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6704000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3838000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2561400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2759800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2946900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1640900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1174800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1251800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1338600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1446000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1530200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-757100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-688800</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6107,17 +6293,20 @@
       <c r="AA76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="3">
         <v>3400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB80" s="2">
+      <c r="AB80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1380000</v>
+      </c>
+      <c r="E81" s="3">
         <v>79000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1465000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1043000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2197000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3657000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>4868000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3333000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2780000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1221000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-272500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-233600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-116700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-124200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-123100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-123200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-134900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-132600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-144100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-87800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-94100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-75900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-68300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-160200</v>
       </c>
-      <c r="AA81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB81" s="3">
+      <c r="AB81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,94 +6609,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E83" s="3">
         <v>78000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>76000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>79000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>78000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>70000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>69000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>7600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>8900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>6500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9500</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB83" s="3">
+      <c r="AB83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-915000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1225000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1662000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>252000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>304000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2763000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3310000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3276000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4063000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2971000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1264300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>892700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-23900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-106200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-99000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-107100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-108900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-143900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-91000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-82000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-46500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-111400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-42600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-185900</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB89" s="3">
+      <c r="AB89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-500</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,94 +7265,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-234000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-113000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-92000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-89000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-87000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-132000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-120000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-99000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-30000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-35000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-19300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-6700</v>
       </c>
       <c r="R91" s="3">
         <v>-6700</v>
       </c>
       <c r="S91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="T91" s="3">
         <v>-10600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-26100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-34100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,94 +7530,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1944000</v>
+      </c>
+      <c r="E94" s="3">
         <v>2011000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1048000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>945000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1152000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3921000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-180000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-190100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>12500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-316000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>130300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>113400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-246900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-11800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>6400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>116100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-11300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-483700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>14800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>288500</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC94" s="3">
-        <v>0</v>
+      <c r="AC94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,94 +8008,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-668000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-542000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-438000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1041000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1327000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-642000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-873000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>26000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>44100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>29700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1381300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>578100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>27600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>15800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>575900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>110400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>550000</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB100" s="3">
+      <c r="AB100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC100" s="3">
         <v>500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AD100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>361000</v>
+      </c>
+      <c r="E102" s="3">
         <v>244000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>176000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>156000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2175000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1800000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1299000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-53000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>161000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2817000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1118300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-255800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1369900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>155800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>22100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-351300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-155700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>491300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>26400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>50900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-27900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>101200</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB102" s="3">
+      <c r="AB102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MRNA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>MRNA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,211 +665,215 @@
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1831000</v>
+      </c>
+      <c r="E8" s="3">
         <v>344000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1862000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5084000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3364000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4749000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6066000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7211000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4969000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4354000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1937000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>570700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>157900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>66400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>14100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>17000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>13100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>16000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>35400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>41800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>28900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>29000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>42500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>71400</v>
       </c>
-      <c r="AB8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD8" s="3">
         <v>0</v>
@@ -877,47 +881,50 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2241000</v>
+      </c>
+      <c r="E9" s="3">
         <v>731000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>792000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1918000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1100000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1381000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1017000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>952000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>722000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>750000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>193000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
@@ -966,47 +973,50 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-410000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-387000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1070000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3166000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2264000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3368000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5049000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6259000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4247000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3604000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1744000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>562800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1055,8 +1065,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1088,88 +1101,89 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E12" s="3">
         <v>1148000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1131000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1211000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>820000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>710000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>554000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>648000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>521000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>421000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>401000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>758900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>344500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>151900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>115100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>117500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>119600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>128300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>130400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>150400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>109100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>104500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>90100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>93600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>199000</v>
       </c>
-      <c r="AB12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>100</v>
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD12" s="3">
         <v>100</v>
@@ -1177,8 +1191,11 @@
       <c r="AE12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1283,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1346,17 +1366,20 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1436,16 +1459,19 @@
         <v>0</v>
       </c>
       <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
         <v>100</v>
       </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1474,186 +1500,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3843000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2211000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2228000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3504000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2198000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2302000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1839000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1801000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1411000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1292000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>671000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>845800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>393000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>188500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>139300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>143100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>147800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>156800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>157700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>188500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>127600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>125900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>106400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>110300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>231100</v>
       </c>
-      <c r="AB17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="3">
         <v>1000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2012000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1867000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-366000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1580000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1166000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2447000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4227000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5410000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3558000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3062000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1266000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-275100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-235100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-122100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-130900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-129000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-130800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-143700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-141700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-153100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-85800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-97000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-77400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-67800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-159700</v>
       </c>
-      <c r="AB18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1685,266 +1718,273 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E20" s="3">
         <v>131000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>70000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>85000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>59000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>32000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>13300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6900</v>
       </c>
-      <c r="AB20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>-100</v>
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD20" s="3">
         <v>-100</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1699000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1644000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-218000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1745000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1338000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2555000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4314000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5494000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3626000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3137000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1278000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-259800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-221400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-107100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-115000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-112300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-112900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-126000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-123800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-132400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-72900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-84000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-67200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-59700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-143300</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-800</v>
       </c>
-      <c r="AE21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="3">
         <v>13000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>10000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>6000</v>
       </c>
       <c r="J22" s="3">
         <v>6000</v>
       </c>
       <c r="K22" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L22" s="3">
         <v>4000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1800</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1500</v>
       </c>
       <c r="V22" s="3">
         <v>1500</v>
       </c>
       <c r="W22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X22" s="3">
         <v>1000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>600</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
@@ -1952,177 +1992,183 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1958000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1749000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-305000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1655000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1217000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2474000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4229000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>5410000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3552000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3063000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1260000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-271000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-232800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-116600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-124200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-123300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-123400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-135300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-132600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-141300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-80300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-90400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-72400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-64800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-153100</v>
       </c>
-      <c r="AB23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-369000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-384000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>190000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>174000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>277000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>572000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>542000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>219000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>283000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>39000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
       </c>
       <c r="R24" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>-200</v>
       </c>
       <c r="T24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
       <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
         <v>100</v>
       </c>
-      <c r="AB24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
+      <c r="AC24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
@@ -2130,8 +2176,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2219,186 +2268,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3630000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1380000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>79000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1465000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1043000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2197000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3657000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>4868000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3333000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2780000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1221000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-272500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-233600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-116700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-124200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-123100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-123200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-134900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-132600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-141400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-80300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-90600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-72400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-64800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-153200</v>
       </c>
-      <c r="AB26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC26" s="3">
+      <c r="AC26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-800</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3630000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1380000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>79000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1465000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1043000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2197000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3657000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>4868000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3333000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2780000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1221000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-272500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-233600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-116700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-124200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-123100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-123200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-134900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-132600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-144100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-87800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-94100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-75900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-68300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-160200</v>
       </c>
-      <c r="AB27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="AC27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2486,8 +2544,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2575,8 +2636,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2664,8 +2728,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2753,186 +2820,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-131000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-70000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-85000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-59000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-32000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-13300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6900</v>
       </c>
-      <c r="AB32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>100</v>
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD32" s="3">
         <v>100</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3630000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1380000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>79000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1465000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1043000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2197000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3657000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>4868000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3333000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2780000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1221000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-272500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-233600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-116700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-124200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-123100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-123200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-134900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-132600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-144100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-87800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-94100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-75900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-68300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-160200</v>
       </c>
-      <c r="AB33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="3">
+      <c r="AC33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3020,191 +3096,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3630000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1380000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>79000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1465000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1043000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2197000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3657000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>4868000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3333000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2780000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1221000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-272500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-233600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-116700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-124200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-123100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-123200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-134900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-132600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-144100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-87800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-94100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-75900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-68300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-160200</v>
       </c>
-      <c r="AB35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC35" s="3">
+      <c r="AC35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC38" s="2">
+      <c r="AC38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3236,8 +3321,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3269,77 +3355,78 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2932000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3801000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3441000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3205000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3027000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2873000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5048000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6848000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5550000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5603000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5442000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2623900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1505600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1761600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>391700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>235900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>173700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>151600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>502900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>658400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>167100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>140600</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>4</v>
       </c>
@@ -3349,86 +3436,89 @@
       <c r="AB41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3">
         <v>200</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>100</v>
       </c>
       <c r="AE41" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>4641000</v>
+      </c>
+      <c r="E42" s="3">
         <v>4658000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>5482000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>6697000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>5321000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>5024000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>5067000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3879000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3356000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2387000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2293000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1983800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1770700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>955400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>826000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>867100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>884800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>918700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>606000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>863100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>905100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>974200</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3438,8 +3528,8 @@
       <c r="AB42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC42" s="3">
-        <v>0</v>
+      <c r="AC42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD42" s="3">
         <v>0</v>
@@ -3447,77 +3537,80 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2146000</v>
+      </c>
+      <c r="E43" s="3">
         <v>688000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1521000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1628000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2821000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2844000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3364000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3296000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3199000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2071000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3228000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1410500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>213500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>57900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>18800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>16300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>17900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>24000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>30600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>17600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>18900</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3527,8 +3620,8 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
@@ -3536,47 +3629,50 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E44" s="3">
         <v>715000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>732000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>949000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2077000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1921000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1942000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1441000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>965000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>643000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>494000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>46500</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3592,8 +3688,8 @@
       <c r="T44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3616,8 +3712,8 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>4</v>
+      <c r="AC44" s="3">
+        <v>0</v>
       </c>
       <c r="AD44" s="3" t="s">
         <v>4</v>
@@ -3625,77 +3721,80 @@
       <c r="AE44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>593000</v>
+      </c>
+      <c r="E45" s="3">
         <v>737000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>946000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>952000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1051000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>901000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>929000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>607000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>355000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>265000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>246000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>233200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>9500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>7900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>11000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>28100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>29200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
@@ -3705,86 +3804,89 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC45" s="3">
-        <v>200</v>
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD45" s="3">
         <v>200</v>
       </c>
       <c r="AE45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10799000</v>
+      </c>
+      <c r="E46" s="3">
         <v>10599000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12122000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>13431000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14297000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13563000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>16350000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>16071000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13425000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10969000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11703000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6297900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3577200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2796700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1249900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1128800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1094500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1097400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1140800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1563000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1117900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1162900</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>4</v>
       </c>
@@ -3794,86 +3896,89 @@
       <c r="AB46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="3">
         <v>400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6105000</v>
+        <v>5359000</v>
       </c>
       <c r="E47" s="3">
-        <v>7442000</v>
+        <v>6224000</v>
       </c>
       <c r="F47" s="3">
+        <v>7525000</v>
+      </c>
+      <c r="G47" s="3">
         <v>8318000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>8655000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>10162000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>9171000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>6843000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6442000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4207000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>468000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>638800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>692000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>354900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>502500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>160000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>279900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>365000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>437700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>173000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>150400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>221800</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
@@ -3883,8 +3988,8 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="3">
-        <v>0</v>
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD47" s="3">
         <v>0</v>
@@ -3892,77 +3997,80 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2717000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2410000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2135000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2139000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2132000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1446000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1473000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1383000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>960000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>898000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>461000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>387100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>368600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>322000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>302600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>287900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>203700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>208500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>213500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>212000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>206500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>202500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3981,31 +4089,34 @@
       <c r="AE48" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>97000</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>98000</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -4062,16 +4173,19 @@
         <v>0</v>
       </c>
       <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
         <v>5700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5900</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>6700</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4159,8 +4273,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4248,77 +4365,80 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2770000</v>
+        <v>478000</v>
       </c>
       <c r="E52" s="3">
-        <v>2426000</v>
+        <v>2553000</v>
       </c>
       <c r="F52" s="3">
+        <v>2243000</v>
+      </c>
+      <c r="G52" s="3">
         <v>1970000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>972000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>872000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>615000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>372000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>96000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>12900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>13100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>12400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>12500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>12700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>12900</v>
-      </c>
-      <c r="T52" s="3">
-        <v>14300</v>
       </c>
       <c r="U52" s="3">
         <v>14300</v>
       </c>
       <c r="V52" s="3">
+        <v>14300</v>
+      </c>
+      <c r="W52" s="3">
         <v>14200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14600</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
       </c>
@@ -4328,8 +4448,8 @@
       <c r="AB52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC52" s="3">
-        <v>0</v>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD52" s="3">
         <v>0</v>
@@ -4337,8 +4457,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4426,77 +4549,80 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19450000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21884000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24125000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25858000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26056000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26043000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>27609000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24669000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20923000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16153000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12694000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7336800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4650900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3486000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2067500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1589400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1590900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1685300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1806200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1962100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1489200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1601800</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>4</v>
       </c>
@@ -4506,17 +4632,20 @@
       <c r="AB54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD54" s="3">
         <v>6100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4548,8 +4677,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4581,77 +4711,78 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E57" s="3">
         <v>310000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>389000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>487000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>330000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>181000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>199000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>302000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>87000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>77000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>18400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>20500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>18800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>11000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>7100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>11700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>29600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>24400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27500</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4661,56 +4792,59 @@
       <c r="AB57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3">
         <v>600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E58" s="3">
         <v>187000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>153000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>161000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>224000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>121000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>160000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>165000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>218000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>159000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>45000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24300</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4726,8 +4860,8 @@
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4751,85 +4885,88 @@
         <v>0</v>
       </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>900</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3741000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2626000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2957000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4275000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>6253000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6510000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>8879000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8661000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9652000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8604000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8388000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4346100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1453000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>142800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>123500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>136000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>136100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>132400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>120700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>191600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>162100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>172500</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4839,86 +4976,89 @@
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1600</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4385000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3123000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3499000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4923000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6807000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6812000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9238000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9128000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9957000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8840000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8441000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4388800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1473600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>161600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>134600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>143100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>147800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>162000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>159200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>222800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>186400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>200000</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>4</v>
       </c>
@@ -4928,86 +5068,89 @@
       <c r="AB60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3">
         <v>2700</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>3000</v>
       </c>
       <c r="AE60" s="3">
         <v>3000</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E61" s="3">
         <v>843000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>831000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>912000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>922000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>641000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>646000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>599000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>238000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>328000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>138000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>109900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>108600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>68100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>38900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>38700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>33800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>33400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>33500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>26900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>26700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -5026,77 +5169,80 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E62" s="3">
         <v>969000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>932000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>335000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>605000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>650000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>797000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>604000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>281000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>277000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>276700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>308900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>309300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>253200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>232800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>157400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>151200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>167600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>175600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>199400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>226200</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
@@ -5109,14 +5255,17 @@
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD62" s="3">
-        <v>0</v>
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5204,8 +5353,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5293,8 +5445,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5382,77 +5537,80 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5995000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4935000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5262000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6735000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8064000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8058000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10534000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10524000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10799000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9449000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8856000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4775400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1891100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>539100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>426700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>414600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>339100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>346700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>360200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>431900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>412700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>452900</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>4</v>
       </c>
@@ -5462,17 +5620,20 @@
       <c r="AB66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="3">
         <v>2700</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5504,8 +5665,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5755,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5682,8 +5847,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5745,14 +5913,14 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>1833600</v>
       </c>
-      <c r="X70" s="3">
+      <c r="Y70" s="3">
         <v>1837600</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5771,8 +5939,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5860,77 +6031,80 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>13389000</v>
+      </c>
+      <c r="E72" s="3">
         <v>17019000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>18399000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>18320000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>16855000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>15812000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>13615000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>9958000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5090000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1757000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1023000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2243500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1971000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1737400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1620700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1496500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1369500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1246400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1111300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1006600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-865200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-784900</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>4</v>
       </c>
@@ -5940,17 +6114,20 @@
       <c r="AB72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-3000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-334100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6038,8 +6215,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6127,8 +6307,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6216,77 +6399,80 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13455000</v>
+      </c>
+      <c r="E76" s="3">
         <v>16949000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>18863000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>19123000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>17992000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17985000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17075000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14145000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10124000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6704000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3838000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2561400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2759800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2946900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1640900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1174800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1251800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1338600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1446000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1530200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-757100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-688800</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>4</v>
       </c>
@@ -6296,17 +6482,20 @@
       <c r="AB76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD76" s="3">
         <v>3400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3200</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6394,191 +6583,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC80" s="2">
+      <c r="AC80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3630000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1380000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>79000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1465000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1043000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2197000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3657000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>4868000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3333000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2780000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1221000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-272500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-233600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-116700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-124200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-123100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-123200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-134900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-132600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-144100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-87800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-94100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-75900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-68300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-160200</v>
       </c>
-      <c r="AB81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC81" s="3">
+      <c r="AC81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6610,97 +6808,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>249000</v>
+      </c>
+      <c r="E83" s="3">
         <v>92000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>78000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>80000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>113000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>76000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>79000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>78000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>70000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>69000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9500</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC83" s="3">
+      <c r="AC83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD83" s="3">
         <v>100</v>
       </c>
-      <c r="AD83" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6788,8 +6990,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6877,8 +7082,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6966,8 +7174,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7055,8 +7266,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7144,97 +7358,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-915000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1225000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1662000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>252000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>304000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2763000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3310000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3276000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4063000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2971000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1264300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>892700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-106200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-99000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-107100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-108900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-143900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-91000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-82000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-46500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-111400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-42600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-185900</v>
       </c>
-      <c r="AB89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AC89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-500</v>
       </c>
-      <c r="AE89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7266,97 +7486,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-234000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-113000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-92000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-89000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-87000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-132000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-120000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-99000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-30000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-35000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-19300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-6700</v>
       </c>
       <c r="S91" s="3">
         <v>-6700</v>
       </c>
       <c r="T91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="U91" s="3">
         <v>-10600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-26100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-34100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-31900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-17300</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC91" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AD91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AE91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7444,8 +7668,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7533,97 +7760,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E94" s="3">
         <v>1944000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2011000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1048000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>945000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1152000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3921000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1138000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3327000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3878000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-180000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-190100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1178300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>12500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-316000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>130300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>113400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-246900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-11800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>6400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>116100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-483700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>14800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>288500</v>
       </c>
-      <c r="AB94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD94" s="3">
-        <v>0</v>
+      <c r="AD94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7655,8 +7888,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7744,8 +7978,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7833,8 +8070,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7922,8 +8162,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8011,97 +8254,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-668000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-542000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-438000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1041000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1327000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-642000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-873000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>26000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>44100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>29700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1381300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>578100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>27600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>15800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>575900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>110400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>550000</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC100" s="3">
+      <c r="AC100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD100" s="3">
         <v>500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>400</v>
       </c>
-      <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8189,93 +8438,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-869000</v>
+      </c>
+      <c r="E102" s="3">
         <v>361000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>244000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>176000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>156000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2175000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1800000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1299000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-53000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>161000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2817000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1118300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-255800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1369900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>155800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-351300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-155700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>491300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>26400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>50900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-45100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-27900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>101200</v>
       </c>
-      <c r="AB102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AC102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="3">
         <v>100</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
